--- a/excel_files/ligands_sdf_output.xlsx
+++ b/excel_files/ligands_sdf_output.xlsx
@@ -17,892 +17,892 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
+    <t>Amidosulfuron</t>
+  </si>
+  <si>
+    <t>Clethodim</t>
+  </si>
+  <si>
+    <t>Clomazone</t>
+  </si>
+  <si>
+    <t>Imazamox</t>
+  </si>
+  <si>
+    <t>Prochloraz</t>
+  </si>
+  <si>
+    <t>Rescalure</t>
+  </si>
+  <si>
+    <t>Tri-allate</t>
+  </si>
+  <si>
+    <t>Sulfosulfuron</t>
+  </si>
+  <si>
+    <t>Isofetamid</t>
+  </si>
+  <si>
+    <t>Isoxaflutole</t>
+  </si>
+  <si>
+    <t>Clopyralid</t>
+  </si>
+  <si>
+    <t>Lenacil</t>
+  </si>
+  <si>
+    <t>Florpyrauxifen-benzyl</t>
+  </si>
+  <si>
+    <t>Fenpicoxamid</t>
+  </si>
+  <si>
+    <t>Pyriproxyfen</t>
+  </si>
+  <si>
+    <t>Sulfoxaflor</t>
+  </si>
+  <si>
+    <t>Quizalofop-P-ethyl</t>
+  </si>
+  <si>
+    <t>Chlormequat</t>
+  </si>
+  <si>
+    <t>Prosulfuron</t>
+  </si>
+  <si>
+    <t>Zoxamide</t>
+  </si>
+  <si>
+    <t>(Z)-11-Hexadecenal</t>
+  </si>
+  <si>
     <t>Mandestrobin</t>
   </si>
   <si>
+    <t>2-Phenylphenol</t>
+  </si>
+  <si>
+    <t>MCPB</t>
+  </si>
+  <si>
+    <t>S-Metolachlor</t>
+  </si>
+  <si>
+    <t>1-Naphthylacetamide</t>
+  </si>
+  <si>
+    <t>Mecoprop-P</t>
+  </si>
+  <si>
+    <t>MCPA</t>
+  </si>
+  <si>
+    <t>Metazachlor</t>
+  </si>
+  <si>
+    <t>Triticonazole</t>
+  </si>
+  <si>
+    <t>Chlorotoluron</t>
+  </si>
+  <si>
+    <t>Metamitron</t>
+  </si>
+  <si>
+    <t>Captan</t>
+  </si>
+  <si>
+    <t>lambda-Cyhalothrin</t>
+  </si>
+  <si>
+    <t>Propoxycarbazone</t>
+  </si>
+  <si>
+    <t>Triclopyr</t>
+  </si>
+  <si>
+    <t>Tembotrione</t>
+  </si>
+  <si>
+    <t>Clodinafop</t>
+  </si>
+  <si>
+    <t>Benfluralin</t>
+  </si>
+  <si>
+    <t>Thifensulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Dimethomorph</t>
+  </si>
+  <si>
+    <t>Ethephon</t>
+  </si>
+  <si>
+    <t>Ethylene</t>
+  </si>
+  <si>
+    <t>Propamocarb</t>
+  </si>
+  <si>
+    <t>Mepiquat</t>
+  </si>
+  <si>
+    <t>Bentazone</t>
+  </si>
+  <si>
+    <t>Hymexazol</t>
+  </si>
+  <si>
+    <t>Penconazole</t>
+  </si>
+  <si>
+    <t>Fluquinconazole</t>
+  </si>
+  <si>
+    <t>Penflufen</t>
+  </si>
+  <si>
+    <t>Flutianil</t>
+  </si>
+  <si>
+    <t>Picloram</t>
+  </si>
+  <si>
+    <t>Iodosulfuron</t>
+  </si>
+  <si>
+    <t>Bupirimate</t>
+  </si>
+  <si>
+    <t>Sedaxane</t>
+  </si>
+  <si>
+    <t>Isoxaben</t>
+  </si>
+  <si>
+    <t>Metalaxyl-M</t>
+  </si>
+  <si>
+    <t>Metconazole</t>
+  </si>
+  <si>
+    <t>Napropamide</t>
+  </si>
+  <si>
+    <t>Phosphane</t>
+  </si>
+  <si>
+    <t>Spiromesifen</t>
+  </si>
+  <si>
+    <t>(Z)-11-Hexadecen-1-ol</t>
+  </si>
+  <si>
+    <t>Formetanate</t>
+  </si>
+  <si>
+    <t>Ipconazole</t>
+  </si>
+  <si>
+    <t>Metribuzin</t>
+  </si>
+  <si>
+    <t>Trinexapac</t>
+  </si>
+  <si>
+    <t>Carvone</t>
+  </si>
+  <si>
+    <t>Malathion</t>
+  </si>
+  <si>
+    <t>Glyphosate</t>
+  </si>
+  <si>
+    <t>Bifenox</t>
+  </si>
+  <si>
+    <t>Tebuconazole</t>
+  </si>
+  <si>
+    <t>Fluometuron</t>
+  </si>
+  <si>
+    <t>Pyriofenone</t>
+  </si>
+  <si>
+    <t>Iprovalicarb</t>
+  </si>
+  <si>
+    <t>Bifenazate</t>
+  </si>
+  <si>
+    <t>Difenoconazole</t>
+  </si>
+  <si>
+    <t>Fluazinam</t>
+  </si>
+  <si>
+    <t>Chlorantraniliprole</t>
+  </si>
+  <si>
+    <t>Daminozide</t>
+  </si>
+  <si>
+    <t>Cycloxydim</t>
+  </si>
+  <si>
+    <t>Pyraclostrobin</t>
+  </si>
+  <si>
+    <t>Tetraconazole</t>
+  </si>
+  <si>
+    <t>Pinoxaden</t>
+  </si>
+  <si>
+    <t>Flazasulfuron</t>
+  </si>
+  <si>
+    <t>Mesotrione</t>
+  </si>
+  <si>
+    <t>Dimethenamid-P</t>
+  </si>
+  <si>
+    <t>24-Epibrassinolide</t>
+  </si>
+  <si>
+    <t>Cyhalofop-butyl</t>
+  </si>
+  <si>
+    <t>Pirimicarb</t>
+  </si>
+  <si>
+    <t>Pendimethalin</t>
+  </si>
+  <si>
+    <t>Valifenalate</t>
+  </si>
+  <si>
+    <t>Trifloxystrobin</t>
+  </si>
+  <si>
+    <t>Fosthiazate</t>
+  </si>
+  <si>
+    <t>Acibenzolar-S-methyl</t>
+  </si>
+  <si>
+    <t>Propaquizafop</t>
+  </si>
+  <si>
+    <t>Carfentrazone-ethyl</t>
+  </si>
+  <si>
+    <t>Prosulfocarb</t>
+  </si>
+  <si>
+    <t>Pyrimethanil</t>
+  </si>
+  <si>
+    <t>Metalaxyl</t>
+  </si>
+  <si>
+    <t>(Z)-7-Tetradecenal</t>
+  </si>
+  <si>
+    <t>Fluazifop-P</t>
+  </si>
+  <si>
+    <t>Mepanipyrim</t>
+  </si>
+  <si>
+    <t>Pyraflufen-ethyl</t>
+  </si>
+  <si>
+    <t>Metrafenone</t>
+  </si>
+  <si>
+    <t>Metam</t>
+  </si>
+  <si>
+    <t>Oxamyl</t>
+  </si>
+  <si>
+    <t>Fluxapyroxad</t>
+  </si>
+  <si>
+    <t>Indoxacarb</t>
+  </si>
+  <si>
+    <t>Fluopyram</t>
+  </si>
+  <si>
+    <t>Cyantraniliprole</t>
+  </si>
+  <si>
+    <t>Dimethachlor</t>
+  </si>
+  <si>
     <t>Penoxsulam</t>
   </si>
   <si>
-    <t>S-Metolachlor</t>
+    <t>Bixafen</t>
+  </si>
+  <si>
+    <t>Flutolanil</t>
+  </si>
+  <si>
+    <t>Gibberellins</t>
+  </si>
+  <si>
+    <t>Laminarin</t>
+  </si>
+  <si>
+    <t>Esfenvalerate</t>
+  </si>
+  <si>
+    <t>Fludioxonil</t>
+  </si>
+  <si>
+    <t>Flubendiamide</t>
+  </si>
+  <si>
+    <t>Proquinazid</t>
+  </si>
+  <si>
+    <t>Aminopyralid</t>
+  </si>
+  <si>
+    <t>Folpet</t>
+  </si>
+  <si>
+    <t>Imazalil</t>
+  </si>
+  <si>
+    <t>Metaldehyde</t>
+  </si>
+  <si>
+    <t>tau-Fluvalinate</t>
+  </si>
+  <si>
+    <t>Acrinathrin</t>
+  </si>
+  <si>
+    <t>Tritosulfuron</t>
+  </si>
+  <si>
+    <t>Flupyradifurone</t>
+  </si>
+  <si>
+    <t>Hexythiazox</t>
+  </si>
+  <si>
+    <t>Pethoxamid</t>
+  </si>
+  <si>
+    <t>(Z)-8-Tetradecen-1-ol</t>
+  </si>
+  <si>
+    <t>Foramsulfuron</t>
+  </si>
+  <si>
+    <t>1,4-Dimethylnaphthalene</t>
+  </si>
+  <si>
+    <t>Pyridaben</t>
+  </si>
+  <si>
+    <t>Propyzamide</t>
+  </si>
+  <si>
+    <t>Eugenol</t>
+  </si>
+  <si>
+    <t>Flonicamid</t>
+  </si>
+  <si>
+    <t>Fluopicolide</t>
+  </si>
+  <si>
+    <t>Thymol</t>
+  </si>
+  <si>
+    <t>Methoxyfenozide</t>
+  </si>
+  <si>
+    <t>Azoxystrobin</t>
+  </si>
+  <si>
+    <t>Diflufenican</t>
+  </si>
+  <si>
+    <t>Mesosulfuron</t>
+  </si>
+  <si>
+    <t>Isopyrazam</t>
+  </si>
+  <si>
+    <t>Ametoctradin</t>
+  </si>
+  <si>
+    <t>(E,E)-8,10-Dodecadien-1-ol</t>
+  </si>
+  <si>
+    <t>Dichlorprop-P</t>
+  </si>
+  <si>
+    <t>Flurochloridone</t>
+  </si>
+  <si>
+    <t>Fosetyl</t>
+  </si>
+  <si>
+    <t>Pirimiphos-methyl</t>
+  </si>
+  <si>
+    <t>Bromuconazole</t>
+  </si>
+  <si>
+    <t>Ethofumesate</t>
+  </si>
+  <si>
+    <t>Mandipropamid</t>
+  </si>
+  <si>
+    <t>Dodecan-1-ol</t>
+  </si>
+  <si>
+    <t>Etofenprox</t>
+  </si>
+  <si>
+    <t>Terbuthylazine</t>
+  </si>
+  <si>
+    <t>Quartz sand</t>
+  </si>
+  <si>
+    <t>Kresoxim-methyl</t>
+  </si>
+  <si>
+    <t>Fenazaquin</t>
+  </si>
+  <si>
+    <t>Phenmedipham</t>
+  </si>
+  <si>
+    <t>Sulcotrione</t>
+  </si>
+  <si>
+    <t>Triflusulfuron</t>
+  </si>
+  <si>
+    <t>Acequinocyl</t>
+  </si>
+  <si>
+    <t>Fenpropidin</t>
+  </si>
+  <si>
+    <t>Flumioxazin</t>
+  </si>
+  <si>
+    <t>Clofentezine</t>
+  </si>
+  <si>
+    <t>Bensulfuron</t>
+  </si>
+  <si>
+    <t>Oxathiapiprolin</t>
+  </si>
+  <si>
+    <t>Chromafenozide</t>
+  </si>
+  <si>
+    <t>Deltamethrin</t>
+  </si>
+  <si>
+    <t>Fenpyroximate</t>
+  </si>
+  <si>
+    <t>(Z)-9-Hexadecenal</t>
+  </si>
+  <si>
+    <t>Florasulam</t>
+  </si>
+  <si>
+    <t>Forchlorfenuron</t>
+  </si>
+  <si>
+    <t>Dithianon</t>
+  </si>
+  <si>
+    <t>Meptyldinocap</t>
+  </si>
+  <si>
+    <t>6-Benzyladenine</t>
+  </si>
+  <si>
+    <t>Metaflumizone</t>
+  </si>
+  <si>
+    <t>Quizalofop-P</t>
+  </si>
+  <si>
+    <t>Etoxazole</t>
+  </si>
+  <si>
+    <t>Geraniol</t>
+  </si>
+  <si>
+    <t>Metobromuron</t>
+  </si>
+  <si>
+    <t>Milbemectin</t>
+  </si>
+  <si>
+    <t>Flumetralin</t>
+  </si>
+  <si>
+    <t>Penthiopyrad</t>
+  </si>
+  <si>
+    <t>Cymoxanil</t>
+  </si>
+  <si>
+    <t>Dazomet</t>
+  </si>
+  <si>
+    <t>Nicosulfuron</t>
+  </si>
+  <si>
+    <t>(E)-5-Decen-1-ol</t>
+  </si>
+  <si>
+    <t>Paclobutrazol</t>
+  </si>
+  <si>
+    <t>1-methylcyclopropene</t>
+  </si>
+  <si>
+    <t>Dodemorph</t>
+  </si>
+  <si>
+    <t>Picolinafen</t>
+  </si>
+  <si>
+    <t>Tefluthrin</t>
+  </si>
+  <si>
+    <t>Halauxifen-methyl</t>
+  </si>
+  <si>
+    <t>Spirotetramat</t>
+  </si>
+  <si>
+    <t>Fluoxastrobin</t>
+  </si>
+  <si>
+    <t>Oleic_acid</t>
+  </si>
+  <si>
+    <t>Bispyribac</t>
+  </si>
+  <si>
+    <t>1-Decanol</t>
+  </si>
+  <si>
+    <t>Gamma-cyhalothrin</t>
+  </si>
+  <si>
+    <t>Cyflufenamid</t>
+  </si>
+  <si>
+    <t>Fenhexamid</t>
+  </si>
+  <si>
+    <t>Pyridalyl</t>
+  </si>
+  <si>
+    <t>Quizalofop-P-tefuryl</t>
+  </si>
+  <si>
+    <t>Cyflumetofen</t>
+  </si>
+  <si>
+    <t>Rimsulfuron</t>
+  </si>
+  <si>
+    <t>Quinmerac</t>
+  </si>
+  <si>
+    <t>Benzovindiflupyr</t>
+  </si>
+  <si>
+    <t>Tribenuron</t>
+  </si>
+  <si>
+    <t>Spiroxamine</t>
+  </si>
+  <si>
+    <t>Buprofezin</t>
+  </si>
+  <si>
+    <t>Pyridate</t>
+  </si>
+  <si>
+    <t>Benalaxyl-M</t>
+  </si>
+  <si>
+    <t>2,4-D</t>
+  </si>
+  <si>
+    <t>8-Hydroxyquinoline</t>
+  </si>
+  <si>
+    <t>Azimsulfuron</t>
+  </si>
+  <si>
+    <t>Beflubutamid</t>
+  </si>
+  <si>
+    <t>Fenoxaprop-P</t>
+  </si>
+  <si>
+    <t>Flufenacet</t>
+  </si>
+  <si>
+    <t>Fluroxypyr</t>
+  </si>
+  <si>
+    <t>Dicamba</t>
+  </si>
+  <si>
+    <t>Prohexadione</t>
+  </si>
+  <si>
+    <t>Tebufenozide</t>
+  </si>
+  <si>
+    <t>Tetradecan-1-ol</t>
+  </si>
+  <si>
+    <t>Thiencarbazone-methyl</t>
+  </si>
+  <si>
+    <t>Prothioconazole</t>
+  </si>
+  <si>
+    <t>Tolclofos-methyl</t>
+  </si>
+  <si>
+    <t>(Z)-8-Dodecen-1-ol</t>
+  </si>
+  <si>
+    <t>(Z)-13-Octadecenal</t>
+  </si>
+  <si>
+    <t>Benthiavalicarb</t>
+  </si>
+  <si>
+    <t>Pyroxsulam</t>
+  </si>
+  <si>
+    <t>Metsulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Silthiofam</t>
+  </si>
+  <si>
+    <t>Mefentrifluconazole</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>Thiabendazole</t>
+  </si>
+  <si>
+    <t>Cyprodinil</t>
   </si>
   <si>
     <t>Halosulfuron-methyl</t>
   </si>
   <si>
-    <t>Proquinazid</t>
-  </si>
-  <si>
-    <t>Flazasulfuron</t>
-  </si>
-  <si>
-    <t>Azoxystrobin</t>
-  </si>
-  <si>
-    <t>Pyridate</t>
-  </si>
-  <si>
-    <t>Cyflumetofen</t>
+    <t>Phosmet</t>
+  </si>
+  <si>
+    <t>Cypermethrin</t>
+  </si>
+  <si>
+    <t>Cyazofamid</t>
+  </si>
+  <si>
+    <t>Diclofop</t>
+  </si>
+  <si>
+    <t>Oxyfluorfen</t>
+  </si>
+  <si>
+    <t>Amisulbrom</t>
+  </si>
+  <si>
+    <t>Dimoxystrobin</t>
   </si>
   <si>
     <t>Fenpyrazamine</t>
   </si>
   <si>
-    <t>Deltamethrin</t>
-  </si>
-  <si>
-    <t>Isopyrazam</t>
-  </si>
-  <si>
-    <t>Pyroxsulam</t>
-  </si>
-  <si>
-    <t>tau-Fluvalinate</t>
-  </si>
-  <si>
-    <t>(Z)-11-Hexadecenal</t>
-  </si>
-  <si>
-    <t>Eugenol</t>
-  </si>
-  <si>
-    <t>Quizalofop-P-ethyl</t>
-  </si>
-  <si>
-    <t>Iprovalicarb</t>
-  </si>
-  <si>
-    <t>Kresoxim-methyl</t>
-  </si>
-  <si>
-    <t>Methoxyfenozide</t>
-  </si>
-  <si>
-    <t>Acequinocyl</t>
-  </si>
-  <si>
-    <t>Gibberellins</t>
-  </si>
-  <si>
-    <t>Oxamyl</t>
-  </si>
-  <si>
-    <t>Sulcotrione</t>
-  </si>
-  <si>
-    <t>Sulfosulfuron</t>
-  </si>
-  <si>
-    <t>Prosulfocarb</t>
-  </si>
-  <si>
-    <t>Fenhexamid</t>
-  </si>
-  <si>
-    <t>Bifenox</t>
-  </si>
-  <si>
-    <t>24-Epibrassinolide</t>
-  </si>
-  <si>
-    <t>Pethoxamid</t>
-  </si>
-  <si>
-    <t>Imazamox</t>
-  </si>
-  <si>
-    <t>Zoxamide</t>
-  </si>
-  <si>
-    <t>Cymoxanil</t>
-  </si>
-  <si>
-    <t>Acibenzolar-S-methyl</t>
-  </si>
-  <si>
-    <t>Fenpropidin</t>
-  </si>
-  <si>
-    <t>Tolclofos-methyl</t>
-  </si>
-  <si>
-    <t>Ethephon</t>
-  </si>
-  <si>
-    <t>Benfluralin</t>
-  </si>
-  <si>
-    <t>Benthiavalicarb</t>
-  </si>
-  <si>
-    <t>Metconazole</t>
-  </si>
-  <si>
-    <t>Bixafen</t>
-  </si>
-  <si>
-    <t>Metobromuron</t>
-  </si>
-  <si>
-    <t>Quinmerac</t>
-  </si>
-  <si>
-    <t>Triticonazole</t>
-  </si>
-  <si>
-    <t>Florasulam</t>
-  </si>
-  <si>
-    <t>Sedaxane</t>
-  </si>
-  <si>
-    <t>(Z)-8-Dodecen-1-ol</t>
-  </si>
-  <si>
-    <t>Dazomet</t>
-  </si>
-  <si>
-    <t>Lenacil</t>
-  </si>
-  <si>
-    <t>Clethodim</t>
-  </si>
-  <si>
-    <t>Metazachlor</t>
-  </si>
-  <si>
-    <t>Mecoprop-P</t>
-  </si>
-  <si>
-    <t>Quizalofop-P-tefuryl</t>
-  </si>
-  <si>
-    <t>Formetanate</t>
-  </si>
-  <si>
-    <t>Sulfoxaflor</t>
-  </si>
-  <si>
-    <t>Flumioxazin</t>
-  </si>
-  <si>
-    <t>Tembotrione</t>
-  </si>
-  <si>
-    <t>Flutianil</t>
-  </si>
-  <si>
-    <t>(Z)-7-Tetradecenal</t>
-  </si>
-  <si>
-    <t>Foramsulfuron</t>
-  </si>
-  <si>
-    <t>Fludioxonil</t>
-  </si>
-  <si>
-    <t>6-Benzyladenine</t>
-  </si>
-  <si>
-    <t>Flutolanil</t>
-  </si>
-  <si>
-    <t>Triclopyr</t>
-  </si>
-  <si>
-    <t>Mesotrione</t>
-  </si>
-  <si>
-    <t>Benalaxyl-M</t>
-  </si>
-  <si>
-    <t>Paclobutrazol</t>
-  </si>
-  <si>
-    <t>Rescalure</t>
-  </si>
-  <si>
-    <t>Trifloxystrobin</t>
-  </si>
-  <si>
-    <t>Dimethenamid-P</t>
-  </si>
-  <si>
-    <t>1-methylcyclopropene</t>
-  </si>
-  <si>
-    <t>Tefluthrin</t>
-  </si>
-  <si>
-    <t>Chlorantraniliprole</t>
-  </si>
-  <si>
-    <t>Dodecan-1-ol</t>
-  </si>
-  <si>
-    <t>Phosmet</t>
-  </si>
-  <si>
-    <t>Amisulbrom</t>
-  </si>
-  <si>
-    <t>Azimsulfuron</t>
-  </si>
-  <si>
-    <t>Hymexazol</t>
-  </si>
-  <si>
-    <t>2-Phenylphenol</t>
-  </si>
-  <si>
-    <t>Napropamide</t>
-  </si>
-  <si>
-    <t>Esfenvalerate</t>
-  </si>
-  <si>
-    <t>Benzovindiflupyr</t>
-  </si>
-  <si>
-    <t>Chlorotoluron</t>
-  </si>
-  <si>
-    <t>MCPA</t>
-  </si>
-  <si>
-    <t>Dimethachlor</t>
-  </si>
-  <si>
-    <t>Penflufen</t>
-  </si>
-  <si>
-    <t>Pyraflufen-ethyl</t>
-  </si>
-  <si>
-    <t>Metrafenone</t>
-  </si>
-  <si>
-    <t>(Z)-8-Tetradecen-1-ol</t>
-  </si>
-  <si>
-    <t>Aminopyralid</t>
-  </si>
-  <si>
-    <t>Difenoconazole</t>
-  </si>
-  <si>
-    <t>Pirimiphos-methyl</t>
-  </si>
-  <si>
-    <t>Prohexadione</t>
-  </si>
-  <si>
-    <t>1-Decanol</t>
-  </si>
-  <si>
-    <t>Fluopyram</t>
-  </si>
-  <si>
-    <t>Isoxaben</t>
-  </si>
-  <si>
-    <t>Silthiofam</t>
-  </si>
-  <si>
-    <t>(E)-5-Decen-1-ol</t>
-  </si>
-  <si>
-    <t>Flupyradifurone</t>
-  </si>
-  <si>
-    <t>Pyridalyl</t>
-  </si>
-  <si>
-    <t>Fluazinam</t>
-  </si>
-  <si>
-    <t>Halauxifen-methyl</t>
-  </si>
-  <si>
-    <t>Flufenacet</t>
-  </si>
-  <si>
-    <t>Gamma-cyhalothrin</t>
-  </si>
-  <si>
-    <t>Amidosulfuron</t>
-  </si>
-  <si>
-    <t>lambda-Cyhalothrin</t>
-  </si>
-  <si>
-    <t>Forchlorfenuron</t>
-  </si>
-  <si>
-    <t>Metaflumizone</t>
-  </si>
-  <si>
-    <t>Penthiopyrad</t>
-  </si>
-  <si>
-    <t>Propaquizafop</t>
-  </si>
-  <si>
-    <t>Thymol</t>
-  </si>
-  <si>
-    <t>Propyzamide</t>
-  </si>
-  <si>
-    <t>Carvone</t>
-  </si>
-  <si>
-    <t>Fluroxypyr</t>
-  </si>
-  <si>
-    <t>Mefentrifluconazole</t>
-  </si>
-  <si>
-    <t>Quizalofop-P</t>
-  </si>
-  <si>
-    <t>Penconazole</t>
-  </si>
-  <si>
-    <t>Bispyribac</t>
-  </si>
-  <si>
-    <t>Prothioconazole</t>
-  </si>
-  <si>
-    <t>Cycloxydim</t>
-  </si>
-  <si>
-    <t>Prosulfuron</t>
-  </si>
-  <si>
-    <t>Pyridaben</t>
-  </si>
-  <si>
-    <t>Cyantraniliprole</t>
-  </si>
-  <si>
     <t>Tebufenpyrad</t>
   </si>
   <si>
-    <t>Laminarin</t>
-  </si>
-  <si>
-    <t>Tri-allate</t>
-  </si>
-  <si>
-    <t>Dodemorph</t>
-  </si>
-  <si>
-    <t>Metalaxyl</t>
-  </si>
-  <si>
-    <t>Tebuconazole</t>
-  </si>
-  <si>
-    <t>Cyprodinil</t>
-  </si>
-  <si>
-    <t>Metaldehyde</t>
-  </si>
-  <si>
-    <t>Pyriproxyfen</t>
-  </si>
-  <si>
-    <t>Etofenprox</t>
-  </si>
-  <si>
-    <t>Mepiquat</t>
-  </si>
-  <si>
-    <t>Fenpicoxamid</t>
-  </si>
-  <si>
-    <t>Rimsulfuron</t>
-  </si>
-  <si>
-    <t>Clopyralid</t>
-  </si>
-  <si>
-    <t>Hexythiazox</t>
-  </si>
-  <si>
-    <t>Phenmedipham</t>
-  </si>
-  <si>
-    <t>Triflusulfuron</t>
-  </si>
-  <si>
-    <t>Dicamba</t>
-  </si>
-  <si>
-    <t>Daminozide</t>
-  </si>
-  <si>
-    <t>Flumetralin</t>
-  </si>
-  <si>
-    <t>Thiencarbazone-methyl</t>
-  </si>
-  <si>
-    <t>(Z)-13-Octadecenal</t>
-  </si>
-  <si>
-    <t>Ametoctradin</t>
-  </si>
-  <si>
-    <t>Buprofezin</t>
-  </si>
-  <si>
-    <t>Terbuthylazine</t>
+    <t>Aclonifen</t>
   </si>
   <si>
     <t>Acetamiprid</t>
   </si>
   <si>
-    <t>Malathion</t>
-  </si>
-  <si>
-    <t>Pyriofenone</t>
-  </si>
-  <si>
-    <t>Cyhalofop-butyl</t>
-  </si>
-  <si>
-    <t>Mandipropamid</t>
-  </si>
-  <si>
-    <t>Metalaxyl-M</t>
-  </si>
-  <si>
-    <t>Clodinafop</t>
-  </si>
-  <si>
-    <t>Spirotetramat</t>
-  </si>
-  <si>
-    <t>2,4-D</t>
-  </si>
-  <si>
-    <t>Bupirimate</t>
-  </si>
-  <si>
-    <t>Oxathiapiprolin</t>
-  </si>
-  <si>
-    <t>Propoxycarbazone</t>
-  </si>
-  <si>
-    <t>Fluopicolide</t>
-  </si>
-  <si>
-    <t>Diclofop</t>
-  </si>
-  <si>
-    <t>Clomazone</t>
-  </si>
-  <si>
-    <t>Ipconazole</t>
-  </si>
-  <si>
-    <t>Metam</t>
-  </si>
-  <si>
-    <t>Metamitron</t>
-  </si>
-  <si>
-    <t>Pendimethalin</t>
-  </si>
-  <si>
-    <t>Fluometuron</t>
-  </si>
-  <si>
-    <t>Metsulfuron-methyl</t>
-  </si>
-  <si>
-    <t>Folpet</t>
-  </si>
-  <si>
-    <t>Oleic_acid</t>
-  </si>
-  <si>
-    <t>Carfentrazone-ethyl</t>
-  </si>
-  <si>
-    <t>MCPB</t>
-  </si>
-  <si>
-    <t>Mepanipyrim</t>
-  </si>
-  <si>
-    <t>Milbemectin</t>
-  </si>
-  <si>
-    <t>Cypermethrin</t>
-  </si>
-  <si>
-    <t>Phosphane</t>
-  </si>
-  <si>
-    <t>Pyraclostrobin</t>
-  </si>
-  <si>
-    <t>Metribuzin</t>
-  </si>
-  <si>
-    <t>Chlormequat</t>
-  </si>
-  <si>
-    <t>Fosthiazate</t>
-  </si>
-  <si>
-    <t>Flurochloridone</t>
-  </si>
-  <si>
-    <t>Bensulfuron</t>
-  </si>
-  <si>
-    <t>Nicosulfuron</t>
-  </si>
-  <si>
-    <t>Spiroxamine</t>
-  </si>
-  <si>
-    <t>1-Naphthylacetamide</t>
-  </si>
-  <si>
-    <t>Meptyldinocap</t>
-  </si>
-  <si>
-    <t>Iodosulfuron</t>
-  </si>
-  <si>
-    <t>Prochloraz</t>
-  </si>
-  <si>
-    <t>Pyrimethanil</t>
-  </si>
-  <si>
-    <t>Trinexapac</t>
-  </si>
-  <si>
-    <t>Bifenazate</t>
-  </si>
-  <si>
-    <t>Bromuconazole</t>
-  </si>
-  <si>
-    <t>Cyflufenamid</t>
-  </si>
-  <si>
-    <t>Flonicamid</t>
-  </si>
-  <si>
-    <t>Fenazaquin</t>
-  </si>
-  <si>
-    <t>Oxyfluorfen</t>
-  </si>
-  <si>
-    <t>Flubendiamide</t>
-  </si>
-  <si>
-    <t>Aclonifen</t>
-  </si>
-  <si>
-    <t>Fosetyl</t>
-  </si>
-  <si>
-    <t>Captan</t>
-  </si>
-  <si>
-    <t>Geraniol</t>
-  </si>
-  <si>
-    <t>Fluxapyroxad</t>
-  </si>
-  <si>
-    <t>Indoxacarb</t>
-  </si>
-  <si>
-    <t>Tribenuron</t>
-  </si>
-  <si>
-    <t>Picloram</t>
-  </si>
-  <si>
-    <t>Fenoxaprop-P</t>
-  </si>
-  <si>
-    <t>Bentazone</t>
-  </si>
-  <si>
-    <t>Mesosulfuron</t>
-  </si>
-  <si>
-    <t>Fluquinconazole</t>
-  </si>
-  <si>
-    <t>Thiabendazole</t>
-  </si>
-  <si>
-    <t>Tebufenozide</t>
-  </si>
-  <si>
-    <t>Urea</t>
-  </si>
-  <si>
-    <t>Valifenalate</t>
-  </si>
-  <si>
-    <t>Chromafenozide</t>
-  </si>
-  <si>
-    <t>Florpyrauxifen-benzyl</t>
-  </si>
-  <si>
-    <t>Propamocarb</t>
-  </si>
-  <si>
-    <t>Glyphosate</t>
-  </si>
-  <si>
-    <t>Ethylene</t>
-  </si>
-  <si>
-    <t>Fluazifop-P</t>
-  </si>
-  <si>
-    <t>Acrinathrin</t>
-  </si>
-  <si>
-    <t>Cyazofamid</t>
-  </si>
-  <si>
-    <t>(Z)-9-Hexadecenal</t>
-  </si>
-  <si>
-    <t>Fenpyroximate</t>
-  </si>
-  <si>
-    <t>Pirimicarb</t>
-  </si>
-  <si>
-    <t>Tetraconazole</t>
-  </si>
-  <si>
-    <t>Thifensulfuron-methyl</t>
-  </si>
-  <si>
-    <t>Tritosulfuron</t>
-  </si>
-  <si>
-    <t>Dithianon</t>
-  </si>
-  <si>
-    <t>Fluoxastrobin</t>
-  </si>
-  <si>
-    <t>Ethofumesate</t>
-  </si>
-  <si>
-    <t>Clofentezine</t>
-  </si>
-  <si>
-    <t>Tetradecan-1-ol</t>
-  </si>
-  <si>
-    <t>Imazalil</t>
-  </si>
-  <si>
-    <t>Quartz sand</t>
-  </si>
-  <si>
-    <t>Isofetamid</t>
-  </si>
-  <si>
-    <t>Isoxaflutole</t>
-  </si>
-  <si>
-    <t>Diflufenican</t>
-  </si>
-  <si>
-    <t>Beflubutamid</t>
-  </si>
-  <si>
-    <t>(Z)-11-Hexadecen-1-ol</t>
-  </si>
-  <si>
-    <t>1,4-Dimethylnaphthalene</t>
-  </si>
-  <si>
-    <t>8-Hydroxyquinoline</t>
-  </si>
-  <si>
-    <t>Etoxazole</t>
-  </si>
-  <si>
-    <t>Spiromesifen</t>
-  </si>
-  <si>
-    <t>(E,E)-8,10-Dodecadien-1-ol</t>
-  </si>
-  <si>
-    <t>Dichlorprop-P</t>
-  </si>
-  <si>
-    <t>Dimethomorph</t>
-  </si>
-  <si>
-    <t>Dimoxystrobin</t>
-  </si>
-  <si>
-    <t>Picolinafen</t>
-  </si>
-  <si>
-    <t>Pinoxaden</t>
+    <t>Sodium_4-nitrophenolate</t>
+  </si>
+  <si>
+    <t>(Z)-8-Dodecen-1-yl_acetate</t>
+  </si>
+  <si>
+    <t>(Z)-9-Tetradecen-1-yl_acetate</t>
+  </si>
+  <si>
+    <t>Potassium_bicarbonate</t>
+  </si>
+  <si>
+    <t>Dodecyl_acetate</t>
+  </si>
+  <si>
+    <t>(E,E)-7,9-Dodecadien-1-yl_acetate</t>
+  </si>
+  <si>
+    <t>(E)-11-Tetradecen-1-yl_acetate</t>
+  </si>
+  <si>
+    <t>Pelargonic_acid</t>
+  </si>
+  <si>
+    <t>(E)-8-Dodecen-1-yl_acetate</t>
+  </si>
+  <si>
+    <t>Indolylbutyric_acid</t>
+  </si>
+  <si>
+    <t>Capric_acid_(CAS_334-48-5)</t>
+  </si>
+  <si>
+    <t>Methyl_2,5-dichlorobenzoate</t>
+  </si>
+  <si>
+    <t>Gibberellic_acid</t>
+  </si>
+  <si>
+    <t>Sodium_2-nitrophenolate</t>
+  </si>
+  <si>
+    <t>Benzoic_acid</t>
+  </si>
+  <si>
+    <t>Acetic_acid</t>
+  </si>
+  <si>
+    <t>Garlic_extract</t>
+  </si>
+  <si>
+    <t>(Z,E)-Tetradeca-9,11-dienyl_acetate</t>
+  </si>
+  <si>
+    <t>Lavandulyl_senecioate</t>
+  </si>
+  <si>
+    <t>(2Z,4E)-5-[(1S)-1-Hydroxy-2,6,6-trimethyl-4-oxocyclohex-2-en-1-yl]-3-methylpenta-2,4-dienoic_acid</t>
+  </si>
+  <si>
+    <t>1-Naphthylacetic_acid</t>
+  </si>
+  <si>
+    <t>Methyl_decanoate</t>
+  </si>
+  <si>
+    <t>(Z)-9-Dodecen-1-yl_acetate</t>
+  </si>
+  <si>
+    <t>Sodium_2-methoxy-5-nitrophenolate</t>
+  </si>
+  <si>
+    <t>(Z)-11-Hexadecen-1-yl_acetate</t>
+  </si>
+  <si>
+    <t>(Z,E)-7,11-Hexadecadien-1-yl_acetate</t>
+  </si>
+  <si>
+    <t>Tetradecyl_acetate</t>
+  </si>
+  <si>
+    <t>Dodine</t>
+  </si>
+  <si>
+    <t>Boscalid_(formerly_nicobifen)</t>
+  </si>
+  <si>
+    <t>z-8-Tetradecenyl_acetate</t>
+  </si>
+  <si>
+    <t>Ziram</t>
+  </si>
+  <si>
+    <t>Caprylic_acid_(CAS_124-07-2)</t>
+  </si>
+  <si>
+    <t>(E)-5-Decen-1-yl_acetate</t>
+  </si>
+  <si>
+    <t>1-(4-Chlorophenyl)-5-(2-methoxyethoxy)-4-oxo-1,4-dihydrocinnoline-3-carboxylic_acid</t>
+  </si>
+  <si>
+    <t>Lauric_acid</t>
+  </si>
+  <si>
+    <t>Maleic_hydrazide</t>
+  </si>
+  <si>
+    <t>Orange_oil</t>
+  </si>
+  <si>
+    <t>3E,8Z-Tetradecadienyl_acetate</t>
+  </si>
+  <si>
+    <t>(Z,E)-9,12-Tetradecadien-1-yl_acetate</t>
+  </si>
+  <si>
+    <t>Sulfuryl_fluoride</t>
+  </si>
+  <si>
+    <t>(3E,8Z,11Z)-Tetradeca-3,8,11-trienyl_acetate</t>
+  </si>
+  <si>
+    <t>Methyl_octanoate</t>
+  </si>
+  <si>
+    <t>Zineb</t>
   </si>
   <si>
     <t>4-(2,4-Dichlorophenoxy)butanoic_acid</t>
   </si>
   <si>
-    <t>Caprylic_acid_(CAS_124-07-2)</t>
-  </si>
-  <si>
-    <t>Lauric_acid</t>
-  </si>
-  <si>
-    <t>Methyl_decanoate</t>
+    <t>L-Ascorbic_acid</t>
   </si>
   <si>
     <t>(Z)-11-Tetradecen-1-yl_acetate</t>
-  </si>
-  <si>
-    <t>(3E,8Z,11Z)-Tetradeca-3,8,11-trienyl_acetate</t>
-  </si>
-  <si>
-    <t>(Z)-9-Dodecen-1-yl_acetate</t>
-  </si>
-  <si>
-    <t>Dodecyl_acetate</t>
-  </si>
-  <si>
-    <t>L-Ascorbic_acid</t>
-  </si>
-  <si>
-    <t>Zineb</t>
-  </si>
-  <si>
-    <t>Dodine</t>
-  </si>
-  <si>
-    <t>Garlic_extract</t>
-  </si>
-  <si>
-    <t>Sodium_2-methoxy-5-nitrophenolate</t>
-  </si>
-  <si>
-    <t>(Z)-9-Tetradecen-1-yl_acetate</t>
-  </si>
-  <si>
-    <t>(Z,E)-9,12-Tetradecadien-1-yl_acetate</t>
-  </si>
-  <si>
-    <t>Methyl_octanoate</t>
-  </si>
-  <si>
-    <t>Sulfuryl_fluoride</t>
-  </si>
-  <si>
-    <t>Tetradecyl_acetate</t>
-  </si>
-  <si>
-    <t>Sodium_2-nitrophenolate</t>
-  </si>
-  <si>
-    <t>Ziram</t>
-  </si>
-  <si>
-    <t>(Z)-8-Dodecen-1-yl_acetate</t>
-  </si>
-  <si>
-    <t>Capric_acid_(CAS_334-48-5)</t>
-  </si>
-  <si>
-    <t>Indolylbutyric_acid</t>
-  </si>
-  <si>
-    <t>3E,8Z-Tetradecadienyl_acetate</t>
-  </si>
-  <si>
-    <t>Benzoic_acid</t>
-  </si>
-  <si>
-    <t>(Z)-11-Hexadecen-1-yl_acetate</t>
-  </si>
-  <si>
-    <t>(E)-11-Tetradecen-1-yl_acetate</t>
-  </si>
-  <si>
-    <t>Sodium_4-nitrophenolate</t>
-  </si>
-  <si>
-    <t>Potassium_bicarbonate</t>
-  </si>
-  <si>
-    <t>(E)-5-Decen-1-yl_acetate</t>
-  </si>
-  <si>
-    <t>Methyl_2,5-dichlorobenzoate</t>
-  </si>
-  <si>
-    <t>(E)-8-Dodecen-1-yl_acetate</t>
-  </si>
-  <si>
-    <t>(Z,E)-Tetradeca-9,11-dienyl_acetate</t>
-  </si>
-  <si>
-    <t>Maleic_hydrazide</t>
-  </si>
-  <si>
-    <t>Orange_oil</t>
-  </si>
-  <si>
-    <t>Pelargonic_acid</t>
-  </si>
-  <si>
-    <t>Gibberellic_acid</t>
-  </si>
-  <si>
-    <t>(2Z,4E)-5-[(1S)-1-Hydroxy-2,6,6-trimethyl-4-oxocyclohex-2-en-1-yl]-3-methylpenta-2,4-dienoic_acid</t>
-  </si>
-  <si>
-    <t>1-Naphthylacetic_acid</t>
-  </si>
-  <si>
-    <t>Acetic_acid</t>
-  </si>
-  <si>
-    <t>Boscalid_(formerly_nicobifen)</t>
-  </si>
-  <si>
-    <t>Lavandulyl_senecioate</t>
-  </si>
-  <si>
-    <t>(E,E)-7,9-Dodecadien-1-yl_acetate</t>
-  </si>
-  <si>
-    <t>(Z,E)-7,11-Hexadecadien-1-yl_acetate</t>
-  </si>
-  <si>
-    <t>1-(4-Chlorophenyl)-5-(2-methoxyethoxy)-4-oxo-1,4-dihydrocinnoline-3-carboxylic_acid</t>
-  </si>
-  <si>
-    <t>z-8-Tetradecenyl_acetate</t>
   </si>
 </sst>
 </file>

--- a/excel_files/ligands_sdf_output.xlsx
+++ b/excel_files/ligands_sdf_output.xlsx
@@ -17,6 +17,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>Sodium 2-methoxy-5-nitrophenolate</t>
+  </si>
+  <si>
     <t>(E,E)-7,9-Dodecadien-1-yl acetate</t>
   </si>
   <si>
@@ -26,19 +29,16 @@
     <t>Potassium bicarbonate</t>
   </si>
   <si>
+    <t>Dodine</t>
+  </si>
+  <si>
     <t>Ziram</t>
   </si>
   <si>
+    <t>Sodium 2-nitrophenolate</t>
+  </si>
+  <si>
     <t>Sodium 4-nitrophenolate</t>
-  </si>
-  <si>
-    <t>Sodium 2-nitrophenolate</t>
-  </si>
-  <si>
-    <t>Dodine</t>
-  </si>
-  <si>
-    <t>Sodium 2-methoxy-5-nitrophenolate</t>
   </si>
 </sst>
 </file>

--- a/excel_files/ligands_sdf_output.xlsx
+++ b/excel_files/ligands_sdf_output.xlsx
@@ -15,30 +15,894 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+  <si>
+    <t>Fluxapyroxad</t>
+  </si>
+  <si>
+    <t>Florpyrauxifen-benzyl</t>
+  </si>
+  <si>
+    <t>Geraniol</t>
+  </si>
+  <si>
+    <t>Paclobutrazol</t>
+  </si>
+  <si>
+    <t>Quinmerac</t>
+  </si>
+  <si>
+    <t>Thiabendazole</t>
+  </si>
+  <si>
+    <t>8-Hydroxyquinoline</t>
+  </si>
+  <si>
+    <t>Metalaxyl</t>
+  </si>
+  <si>
+    <t>Fosetyl</t>
+  </si>
+  <si>
+    <t>Metaldehyde</t>
+  </si>
+  <si>
+    <t>Pyroxsulam</t>
+  </si>
+  <si>
+    <t>Mesotrione</t>
+  </si>
+  <si>
+    <t>Diflufenican</t>
+  </si>
+  <si>
+    <t>Penthiopyrad</t>
+  </si>
+  <si>
+    <t>Fenpyrazamine</t>
+  </si>
+  <si>
+    <t>Benthiavalicarb</t>
+  </si>
+  <si>
+    <t>(Z)-9-Tetradecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Propyzamide</t>
+  </si>
+  <si>
+    <t>Iodosulfuron</t>
+  </si>
+  <si>
+    <t>Ipconazole</t>
+  </si>
+  <si>
+    <t>Dimoxystrobin</t>
+  </si>
+  <si>
+    <t>L-Ascorbic acid</t>
+  </si>
+  <si>
+    <t>Fenpicoxamid</t>
+  </si>
+  <si>
+    <t>Boscalid</t>
+  </si>
+  <si>
+    <t>1-Naphthylacetamide</t>
+  </si>
+  <si>
+    <t>Propaquizafop</t>
+  </si>
+  <si>
+    <t>Flazasulfuron</t>
+  </si>
+  <si>
+    <t>Eugenol</t>
+  </si>
+  <si>
+    <t>Flupyradifurone</t>
+  </si>
+  <si>
+    <t>(Z,E)-9,12-Tetradecadien-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Dithianon</t>
+  </si>
+  <si>
+    <t>Bensulfuron</t>
+  </si>
+  <si>
+    <t>Flumetralin</t>
+  </si>
+  <si>
+    <t>Methyl octanoate</t>
+  </si>
+  <si>
+    <t>Pyridaben</t>
+  </si>
+  <si>
+    <t>1-(4-Chlorophenyl)-5-(2-methoxyethoxy)-4-oxo-1,4-dihydrocinnoline-3-carboxylic acid</t>
+  </si>
+  <si>
+    <t>Azoxystrobin</t>
+  </si>
+  <si>
+    <t>Formetanate</t>
+  </si>
+  <si>
+    <t>Metrafenone</t>
+  </si>
+  <si>
+    <t>(3E,8Z,11Z)-Tetradeca-3,8,11-trienyl acetate</t>
+  </si>
+  <si>
+    <t>Tefluthrin</t>
+  </si>
+  <si>
+    <t>Quizalofop-P-ethyl</t>
+  </si>
+  <si>
+    <t>Methyl 2,5-dichlorobenzoate</t>
+  </si>
+  <si>
+    <t>Clopyralid</t>
+  </si>
+  <si>
+    <t>Dazomet</t>
+  </si>
+  <si>
+    <t>Capric acid</t>
+  </si>
+  <si>
+    <t>Captan</t>
+  </si>
+  <si>
+    <t>Tetraconazole</t>
+  </si>
+  <si>
+    <t>Triclopyr</t>
+  </si>
+  <si>
+    <t>Chlorotoluron</t>
+  </si>
+  <si>
+    <t>Orange oil</t>
+  </si>
+  <si>
+    <t>Triticonazole</t>
+  </si>
+  <si>
+    <t>Bispyribac</t>
+  </si>
+  <si>
+    <t>Flufenacet</t>
+  </si>
+  <si>
+    <t>Indoxacarb</t>
+  </si>
+  <si>
+    <t>Metamitron</t>
+  </si>
+  <si>
+    <t>Tribenuron</t>
+  </si>
+  <si>
+    <t>Dicamba</t>
+  </si>
+  <si>
+    <t>Folpet</t>
+  </si>
+  <si>
+    <t>Rescalure</t>
+  </si>
+  <si>
+    <t>Lauric acid</t>
+  </si>
+  <si>
+    <t>Metalaxyl-M</t>
+  </si>
+  <si>
+    <t>Azimsulfuron</t>
+  </si>
+  <si>
+    <t>Phosphane</t>
+  </si>
+  <si>
+    <t>Garlic extract</t>
+  </si>
+  <si>
+    <t>Buprofezin</t>
+  </si>
+  <si>
+    <t>Triflusulfuron</t>
+  </si>
+  <si>
+    <t>Bupirimate</t>
+  </si>
+  <si>
+    <t>Sulfosulfuron</t>
+  </si>
+  <si>
+    <t>Dimethomorph</t>
+  </si>
+  <si>
+    <t>(Z)-9-Hexadecenal</t>
+  </si>
+  <si>
+    <t>Spiroxamine</t>
+  </si>
+  <si>
+    <t>Mandipropamid</t>
+  </si>
+  <si>
+    <t>Zoxamide</t>
+  </si>
+  <si>
+    <t>Dodemorph</t>
+  </si>
+  <si>
+    <t>Sedaxane</t>
+  </si>
+  <si>
+    <t>Fenazaquin</t>
+  </si>
+  <si>
+    <t>Flurochloridone</t>
+  </si>
+  <si>
+    <t>Nicosulfuron</t>
+  </si>
+  <si>
+    <t>Pendimethalin</t>
+  </si>
+  <si>
+    <t>4-(2,4-Dichlorophenoxy)butanoic acid</t>
+  </si>
+  <si>
+    <t>Fluazinam</t>
+  </si>
+  <si>
+    <t>Foramsulfuron</t>
+  </si>
+  <si>
+    <t>Acibenzolar-S-methyl</t>
+  </si>
+  <si>
+    <t>Etoxazole</t>
+  </si>
+  <si>
+    <t>Indolylbutyric acid</t>
+  </si>
+  <si>
+    <t>(E)-11-Tetradecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Difenoconazole</t>
+  </si>
+  <si>
+    <t>Mepiquat</t>
+  </si>
+  <si>
+    <t>Fluometuron</t>
+  </si>
+  <si>
+    <t>(Z)-11-Hexadecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Cyazofamid</t>
+  </si>
+  <si>
+    <t>Isoxaben</t>
+  </si>
+  <si>
+    <t>Thymol</t>
+  </si>
+  <si>
+    <t>6-Benzyladenine</t>
+  </si>
+  <si>
+    <t>Thiencarbazone-methyl</t>
+  </si>
+  <si>
+    <t>Fluoxastrobin</t>
+  </si>
+  <si>
+    <t>Imazalil</t>
+  </si>
+  <si>
+    <t>Malathion</t>
+  </si>
+  <si>
+    <t>Ethephon</t>
+  </si>
+  <si>
+    <t>Fludioxonil</t>
+  </si>
+  <si>
+    <t>Trifloxystrobin</t>
+  </si>
+  <si>
+    <t>(Z)-8-Dodecen-1-ol</t>
+  </si>
+  <si>
+    <t>Penoxsulam</t>
+  </si>
+  <si>
+    <t>Metconazole</t>
+  </si>
+  <si>
+    <t>Acequinocyl</t>
+  </si>
+  <si>
+    <t>Hexythiazox</t>
+  </si>
+  <si>
+    <t>Metsulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Picloram</t>
+  </si>
+  <si>
+    <t>Tembotrione</t>
+  </si>
+  <si>
+    <t>Flumioxazin</t>
+  </si>
+  <si>
+    <t>3E,8Z-Tetradecadienyl acetate</t>
+  </si>
+  <si>
+    <t>Bifenox</t>
+  </si>
+  <si>
+    <t>(E)-5-Decen-1-ol</t>
+  </si>
+  <si>
+    <t>Gamma-cyhalothrin</t>
+  </si>
+  <si>
+    <t>Fenoxaprop-P</t>
+  </si>
+  <si>
+    <t>Fenpropidin</t>
+  </si>
+  <si>
+    <t>Isofetamid</t>
+  </si>
+  <si>
+    <t>Aminopyralid</t>
+  </si>
+  <si>
+    <t>Prohexadione</t>
+  </si>
+  <si>
+    <t>Propamocarb</t>
+  </si>
+  <si>
+    <t>Tebufenozide</t>
+  </si>
+  <si>
+    <t>(Z)-11-Hexadecenal</t>
+  </si>
+  <si>
+    <t>1-Naphthylacetic acid</t>
+  </si>
+  <si>
+    <t>Quartz sand</t>
+  </si>
+  <si>
+    <t>Etofenprox</t>
+  </si>
+  <si>
+    <t>Gibberellic acid</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>Clethodim</t>
+  </si>
+  <si>
+    <t>Milbemectin</t>
+  </si>
+  <si>
+    <t>Napropamide</t>
+  </si>
+  <si>
+    <t>Pirimiphos-methyl</t>
+  </si>
+  <si>
+    <t>Aclonifen</t>
+  </si>
+  <si>
+    <t>Proquinazid</t>
+  </si>
+  <si>
+    <t>Fluroxypyr</t>
+  </si>
+  <si>
+    <t>S-Metolachlor</t>
+  </si>
+  <si>
+    <t>Cyhalofop-butyl</t>
+  </si>
+  <si>
+    <t>Prosulfuron</t>
+  </si>
+  <si>
+    <t>Picolinafen</t>
+  </si>
+  <si>
+    <t>Pyridalyl</t>
+  </si>
+  <si>
+    <t>(Z)-9-Dodecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Oxathiapiprolin</t>
+  </si>
+  <si>
+    <t>Oleic acid</t>
+  </si>
+  <si>
+    <t>Dodecyl acetate</t>
+  </si>
+  <si>
+    <t>Metribuzin</t>
+  </si>
+  <si>
+    <t>Quizalofop-P</t>
+  </si>
+  <si>
+    <t>24-Epibrassinolide</t>
+  </si>
+  <si>
+    <t>(Z,E)-7,11-Hexadecadien-1-yl acetate</t>
+  </si>
+  <si>
+    <t>(Z)-11-Tetradecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Bentazone</t>
+  </si>
+  <si>
+    <t>z-8-Tetradecenyl acetate</t>
+  </si>
+  <si>
+    <t>Acetic acid</t>
+  </si>
+  <si>
+    <t>Fenpyroximate</t>
+  </si>
+  <si>
+    <t>Terbuthylazine</t>
+  </si>
+  <si>
+    <t>Cyprodinil</t>
+  </si>
+  <si>
+    <t>Daminozide</t>
+  </si>
+  <si>
+    <t>(Z)-8-Tetradecen-1-ol</t>
+  </si>
+  <si>
+    <t>(Z)-8-Dodecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Quizalofop-P-tefuryl</t>
+  </si>
+  <si>
+    <t>Tri-allate</t>
+  </si>
+  <si>
+    <t>Metazachlor</t>
+  </si>
+  <si>
+    <t>Forchlorfenuron</t>
+  </si>
+  <si>
+    <t>Mefentrifluconazole</t>
+  </si>
+  <si>
+    <t>Tetradecyl acetate</t>
+  </si>
+  <si>
+    <t>Clodinafop</t>
+  </si>
+  <si>
+    <t>Fluopicolide</t>
+  </si>
+  <si>
+    <t>Imazamox</t>
+  </si>
+  <si>
+    <t>Benalaxyl-M</t>
+  </si>
+  <si>
+    <t>Valifenalate</t>
+  </si>
+  <si>
+    <t>Metaflumizone</t>
+  </si>
+  <si>
+    <t>Silthiofam</t>
+  </si>
+  <si>
+    <t>(Z,E)-Tetradeca-9,11-dienyl acetate</t>
+  </si>
+  <si>
+    <t>Kresoxim-methyl</t>
+  </si>
+  <si>
+    <t>Fluazifop-P</t>
+  </si>
+  <si>
+    <t>1-methylcyclopropene</t>
+  </si>
+  <si>
+    <t>Carvone</t>
+  </si>
+  <si>
+    <t>Methoxyfenozide</t>
+  </si>
+  <si>
+    <t>Cyflufenamid</t>
+  </si>
+  <si>
+    <t>(2Z,4E)-5-[(1S)-1-Hydroxy-2,6,6-trimethyl-4-oxocyclohex-2-en-1-yl]-3-methylpenta-2,4-dienoic acid</t>
+  </si>
+  <si>
+    <t>Bifenazate</t>
+  </si>
+  <si>
+    <t>Maleic hydrazide</t>
+  </si>
+  <si>
+    <t>Pyridate</t>
+  </si>
+  <si>
+    <t>Benfluralin</t>
+  </si>
+  <si>
+    <t>Isoxaflutole</t>
+  </si>
+  <si>
+    <t>Prothioconazole</t>
+  </si>
+  <si>
+    <t>Hymexazol</t>
+  </si>
+  <si>
+    <t>Iprovalicarb</t>
+  </si>
+  <si>
+    <t>Propoxycarbazone</t>
+  </si>
+  <si>
+    <t>Trinexapac</t>
+  </si>
+  <si>
+    <t>(E,E)-8,10-Dodecadien-1-ol</t>
+  </si>
+  <si>
+    <t>Ametoctradin</t>
+  </si>
+  <si>
+    <t>Ethylene</t>
+  </si>
+  <si>
+    <t>Oxamyl</t>
+  </si>
+  <si>
+    <t>Amisulbrom</t>
+  </si>
+  <si>
+    <t>Chromafenozide</t>
+  </si>
+  <si>
+    <t>Prochloraz</t>
+  </si>
+  <si>
+    <t>Sulfoxaflor</t>
+  </si>
+  <si>
+    <t>Clomazone</t>
+  </si>
+  <si>
+    <t>Benzovindiflupyr</t>
+  </si>
+  <si>
+    <t>Spirotetramat</t>
+  </si>
+  <si>
+    <t>Esfenvalerate</t>
+  </si>
+  <si>
+    <t>Pyraclostrobin</t>
+  </si>
+  <si>
+    <t>Tetradecan-1-ol</t>
+  </si>
+  <si>
+    <t>(Z)-13-Octadecenal</t>
+  </si>
+  <si>
+    <t>Fenhexamid</t>
+  </si>
+  <si>
+    <t>Dimethenamid-P</t>
+  </si>
+  <si>
+    <t>Mepanipyrim</t>
+  </si>
+  <si>
+    <t>Meptyldinocap</t>
+  </si>
+  <si>
+    <t>Methyl decanoate</t>
+  </si>
+  <si>
+    <t>Pyrimethanil</t>
+  </si>
+  <si>
+    <t>(Z)-7-Tetradecenal</t>
+  </si>
+  <si>
+    <t>Carfentrazone-ethyl</t>
+  </si>
+  <si>
+    <t>Fluquinconazole</t>
+  </si>
+  <si>
+    <t>Sulcotrione</t>
+  </si>
+  <si>
+    <t>Bromuconazole</t>
+  </si>
+  <si>
+    <t>Chlorantraniliprole</t>
+  </si>
+  <si>
+    <t>Metam</t>
+  </si>
+  <si>
+    <t>Cycloxydim</t>
+  </si>
+  <si>
+    <t>Phenmedipham</t>
+  </si>
+  <si>
+    <t>Benzoic acid</t>
+  </si>
+  <si>
+    <t>Metobromuron</t>
+  </si>
+  <si>
+    <t>MCPA</t>
+  </si>
+  <si>
+    <t>Isopyrazam</t>
+  </si>
+  <si>
+    <t>Thifensulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Cymoxanil</t>
+  </si>
+  <si>
+    <t>Pyraflufen-ethyl</t>
+  </si>
+  <si>
+    <t>Diclofop</t>
+  </si>
+  <si>
+    <t>Penconazole</t>
+  </si>
+  <si>
+    <t>Pethoxamid</t>
+  </si>
+  <si>
+    <t>Florasulam</t>
+  </si>
+  <si>
+    <t>Cyantraniliprole</t>
+  </si>
+  <si>
+    <t>2-Phenylphenol</t>
+  </si>
+  <si>
+    <t>Phosmet</t>
+  </si>
+  <si>
+    <t>Tebuconazole</t>
+  </si>
+  <si>
+    <t>Prosulfocarb</t>
+  </si>
+  <si>
+    <t>Beflubutamid</t>
+  </si>
+  <si>
+    <t>Pelargonic acid</t>
+  </si>
+  <si>
+    <t>(E)-8-Dodecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Lenacil</t>
+  </si>
+  <si>
+    <t>Pinoxaden</t>
+  </si>
+  <si>
+    <t>2,4-D</t>
+  </si>
+  <si>
+    <t>Tolclofos-methyl</t>
+  </si>
+  <si>
+    <t>Sulfuryl fluoride</t>
+  </si>
+  <si>
+    <t>Flonicamid</t>
+  </si>
+  <si>
+    <t>Bixafen</t>
+  </si>
+  <si>
+    <t>Gibberellins</t>
+  </si>
+  <si>
+    <t>Glyphosate</t>
+  </si>
+  <si>
+    <t>Cypermethrin</t>
+  </si>
+  <si>
+    <t>Cyflumetofen</t>
+  </si>
+  <si>
+    <t>Acrinathrin</t>
+  </si>
+  <si>
+    <t>Fosthiazate</t>
+  </si>
+  <si>
+    <t>Mesosulfuron</t>
+  </si>
+  <si>
+    <t>Pyriproxyfen</t>
+  </si>
+  <si>
+    <t>Flutolanil</t>
+  </si>
+  <si>
+    <t>Zineb</t>
+  </si>
+  <si>
+    <t>Dichlorprop-P</t>
+  </si>
+  <si>
+    <t>Dodecan-1-ol</t>
+  </si>
+  <si>
+    <t>Rimsulfuron</t>
+  </si>
+  <si>
+    <t>Tritosulfuron</t>
+  </si>
+  <si>
+    <t>lambda-Cyhalothrin</t>
+  </si>
+  <si>
+    <t>Pyriofenone</t>
+  </si>
+  <si>
+    <t>Amidosulfuron</t>
+  </si>
+  <si>
+    <t>Deltamethrin</t>
+  </si>
+  <si>
+    <t>Tebufenpyrad</t>
+  </si>
+  <si>
+    <t>Chlormequat</t>
+  </si>
+  <si>
+    <t>Lavandulyl senecioate</t>
+  </si>
+  <si>
+    <t>Clofentezine</t>
+  </si>
+  <si>
+    <t>Laminarin</t>
+  </si>
+  <si>
+    <t>Fluopyram</t>
+  </si>
+  <si>
+    <t>Oxyfluorfen</t>
+  </si>
+  <si>
+    <t>MCPB</t>
+  </si>
+  <si>
+    <t>Ethofumesate</t>
+  </si>
+  <si>
+    <t>Halosulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Spiromesifen</t>
+  </si>
+  <si>
+    <t>tau-Fluvalinate</t>
+  </si>
+  <si>
+    <t>1,4-Dimethylnaphthalene</t>
+  </si>
+  <si>
+    <t>Flutianil</t>
+  </si>
+  <si>
+    <t>Caprylic acid</t>
+  </si>
+  <si>
+    <t>Mandestrobin</t>
+  </si>
+  <si>
+    <t>Mecoprop-P</t>
+  </si>
+  <si>
+    <t>(E)-5-Decen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Flubendiamide</t>
+  </si>
+  <si>
+    <t>Halauxifen-methyl</t>
+  </si>
+  <si>
+    <t>Penflufen</t>
+  </si>
+  <si>
+    <t>Pirimicarb</t>
+  </si>
+  <si>
+    <t>Acetamiprid</t>
+  </si>
+  <si>
+    <t>Dimethachlor</t>
+  </si>
+  <si>
+    <t>(Z)-11-Hexadecen-1-ol</t>
+  </si>
+  <si>
+    <t>1-Decanol</t>
+  </si>
   <si>
     <t>Sodium 2-methoxy-5-nitrophenolate</t>
   </si>
   <si>
+    <t>Sodium 2-nitrophenolate</t>
+  </si>
+  <si>
+    <t>Potassium bicarbonate</t>
+  </si>
+  <si>
+    <t>Dodine</t>
+  </si>
+  <si>
+    <t>Sodium 4-nitrophenolate</t>
+  </si>
+  <si>
+    <t>Ziram</t>
+  </si>
+  <si>
     <t>(E,E)-7,9-Dodecadien-1-yl acetate</t>
-  </si>
-  <si>
-    <t>Zineb</t>
-  </si>
-  <si>
-    <t>Potassium bicarbonate</t>
-  </si>
-  <si>
-    <t>Dodine</t>
-  </si>
-  <si>
-    <t>Ziram</t>
-  </si>
-  <si>
-    <t>Sodium 2-nitrophenolate</t>
-  </si>
-  <si>
-    <t>Sodium 4-nitrophenolate</t>
   </si>
 </sst>
 </file>
@@ -370,19 +1234,1465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,42 +2700,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/ligands_sdf_output.xlsx
+++ b/excel_files/ligands_sdf_output.xlsx
@@ -17,889 +17,889 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
+    <t>Esfenvalerate</t>
+  </si>
+  <si>
+    <t>Formetanate</t>
+  </si>
+  <si>
+    <t>Diclofop</t>
+  </si>
+  <si>
+    <t>Picolinafen</t>
+  </si>
+  <si>
+    <t>(Z)-11-Hexadecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Propyzamide</t>
+  </si>
+  <si>
+    <t>Cyflufenamid</t>
+  </si>
+  <si>
+    <t>Fluquinconazole</t>
+  </si>
+  <si>
+    <t>Methoxyfenozide</t>
+  </si>
+  <si>
+    <t>Tebufenpyrad</t>
+  </si>
+  <si>
+    <t>Benzoic acid</t>
+  </si>
+  <si>
+    <t>Oxamyl</t>
+  </si>
+  <si>
+    <t>(Z)-9-Dodecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Oxyfluorfen</t>
+  </si>
+  <si>
+    <t>Lauric acid</t>
+  </si>
+  <si>
+    <t>Fluometuron</t>
+  </si>
+  <si>
+    <t>Fluoxastrobin</t>
+  </si>
+  <si>
+    <t>S-Metolachlor</t>
+  </si>
+  <si>
+    <t>Tritosulfuron</t>
+  </si>
+  <si>
+    <t>Halosulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Mepiquat</t>
+  </si>
+  <si>
+    <t>Sulfoxaflor</t>
+  </si>
+  <si>
+    <t>Aminopyralid</t>
+  </si>
+  <si>
+    <t>Caprylic acid</t>
+  </si>
+  <si>
+    <t>Malathion</t>
+  </si>
+  <si>
+    <t>Picloram</t>
+  </si>
+  <si>
+    <t>Florpyrauxifen-benzyl</t>
+  </si>
+  <si>
+    <t>Dimethomorph</t>
+  </si>
+  <si>
+    <t>Cycloxydim</t>
+  </si>
+  <si>
+    <t>Flonicamid</t>
+  </si>
+  <si>
+    <t>Fluazinam</t>
+  </si>
+  <si>
+    <t>Dimethachlor</t>
+  </si>
+  <si>
+    <t>Fosetyl</t>
+  </si>
+  <si>
+    <t>Nicosulfuron</t>
+  </si>
+  <si>
+    <t>Dimoxystrobin</t>
+  </si>
+  <si>
+    <t>Pelargonic acid</t>
+  </si>
+  <si>
+    <t>Mandestrobin</t>
+  </si>
+  <si>
+    <t>Benzovindiflupyr</t>
+  </si>
+  <si>
+    <t>Flurochloridone</t>
+  </si>
+  <si>
+    <t>Garlic extract</t>
+  </si>
+  <si>
+    <t>Glyphosate</t>
+  </si>
+  <si>
+    <t>Flutolanil</t>
+  </si>
+  <si>
+    <t>Sulfuryl fluoride</t>
+  </si>
+  <si>
+    <t>Amisulbrom</t>
+  </si>
+  <si>
+    <t>Metobromuron</t>
+  </si>
+  <si>
+    <t>Triticonazole</t>
+  </si>
+  <si>
+    <t>Ethylene</t>
+  </si>
+  <si>
+    <t>Florasulam</t>
+  </si>
+  <si>
+    <t>Amidosulfuron</t>
+  </si>
+  <si>
+    <t>Pyridate</t>
+  </si>
+  <si>
+    <t>Tri-allate</t>
+  </si>
+  <si>
+    <t>Metalaxyl</t>
+  </si>
+  <si>
+    <t>Quizalofop-P-tefuryl</t>
+  </si>
+  <si>
+    <t>Prothioconazole</t>
+  </si>
+  <si>
+    <t>Maleic hydrazide</t>
+  </si>
+  <si>
+    <t>Methyl 2,5-dichlorobenzoate</t>
+  </si>
+  <si>
+    <t>Dodecan-1-ol</t>
+  </si>
+  <si>
+    <t>Eugenol</t>
+  </si>
+  <si>
+    <t>1-Decanol</t>
+  </si>
+  <si>
+    <t>Methyl decanoate</t>
+  </si>
+  <si>
+    <t>Propoxycarbazone</t>
+  </si>
+  <si>
+    <t>Penconazole</t>
+  </si>
+  <si>
+    <t>Rescalure</t>
+  </si>
+  <si>
+    <t>(Z)-13-Octadecenal</t>
+  </si>
+  <si>
+    <t>Hexythiazox</t>
+  </si>
+  <si>
+    <t>Cyazofamid</t>
+  </si>
+  <si>
+    <t>(3E,8Z,11Z)-Tetradeca-3,8,11-trienyl acetate</t>
+  </si>
+  <si>
+    <t>Pyriofenone</t>
+  </si>
+  <si>
+    <t>Silthiofam</t>
+  </si>
+  <si>
+    <t>Cyprodinil</t>
+  </si>
+  <si>
+    <t>Metamitron</t>
+  </si>
+  <si>
+    <t>Imazalil</t>
+  </si>
+  <si>
+    <t>Tebufenozide</t>
+  </si>
+  <si>
+    <t>Pethoxamid</t>
+  </si>
+  <si>
+    <t>Dicamba</t>
+  </si>
+  <si>
+    <t>Ipconazole</t>
+  </si>
+  <si>
+    <t>Ametoctradin</t>
+  </si>
+  <si>
+    <t>Mesotrione</t>
+  </si>
+  <si>
+    <t>Thymol</t>
+  </si>
+  <si>
+    <t>Prochloraz</t>
+  </si>
+  <si>
+    <t>Flubendiamide</t>
+  </si>
+  <si>
+    <t>Gamma-cyhalothrin</t>
+  </si>
+  <si>
+    <t>Trifloxystrobin</t>
+  </si>
+  <si>
+    <t>Carvone</t>
+  </si>
+  <si>
+    <t>Carfentrazone-ethyl</t>
+  </si>
+  <si>
+    <t>Hymexazol</t>
+  </si>
+  <si>
+    <t>Fenazaquin</t>
+  </si>
+  <si>
+    <t>Fenoxaprop-P</t>
+  </si>
+  <si>
+    <t>Fluopyram</t>
+  </si>
+  <si>
+    <t>Spiromesifen</t>
+  </si>
+  <si>
+    <t>Metaldehyde</t>
+  </si>
+  <si>
+    <t>Pyridaben</t>
+  </si>
+  <si>
+    <t>Azoxystrobin</t>
+  </si>
+  <si>
+    <t>Deltamethrin</t>
+  </si>
+  <si>
+    <t>Geraniol</t>
+  </si>
+  <si>
+    <t>Phosmet</t>
+  </si>
+  <si>
+    <t>Ethofumesate</t>
+  </si>
+  <si>
+    <t>3E,8Z-Tetradecadienyl acetate</t>
+  </si>
+  <si>
+    <t>tau-Fluvalinate</t>
+  </si>
+  <si>
+    <t>Etofenprox</t>
+  </si>
+  <si>
+    <t>Metribuzin</t>
+  </si>
+  <si>
+    <t>Isoxaben</t>
+  </si>
+  <si>
+    <t>Acrinathrin</t>
+  </si>
+  <si>
+    <t>1-methylcyclopropene</t>
+  </si>
+  <si>
+    <t>Tembotrione</t>
+  </si>
+  <si>
+    <t>Dichlorprop-P</t>
+  </si>
+  <si>
+    <t>(Z)-8-Dodecen-1-ol</t>
+  </si>
+  <si>
+    <t>Tebuconazole</t>
+  </si>
+  <si>
+    <t>Metalaxyl-M</t>
+  </si>
+  <si>
+    <t>Thiabendazole</t>
+  </si>
+  <si>
+    <t>Trinexapac</t>
+  </si>
+  <si>
+    <t>Napropamide</t>
+  </si>
+  <si>
+    <t>Clomazone</t>
+  </si>
+  <si>
+    <t>Thiencarbazone-methyl</t>
+  </si>
+  <si>
+    <t>Sulfosulfuron</t>
+  </si>
+  <si>
+    <t>Pirimiphos-methyl</t>
+  </si>
+  <si>
+    <t>Iprovalicarb</t>
+  </si>
+  <si>
+    <t>Mandipropamid</t>
+  </si>
+  <si>
+    <t>Laminarin</t>
+  </si>
+  <si>
+    <t>Mesosulfuron</t>
+  </si>
+  <si>
+    <t>Acequinocyl</t>
+  </si>
+  <si>
+    <t>Dodecyl acetate</t>
+  </si>
+  <si>
+    <t>1-(4-Chlorophenyl)-5-(2-methoxyethoxy)-4-oxo-1,4-dihydrocinnoline-3-carboxylic acid</t>
+  </si>
+  <si>
+    <t>Dazomet</t>
+  </si>
+  <si>
+    <t>(2Z,4E)-5-[(1S)-1-Hydroxy-2,6,6-trimethyl-4-oxocyclohex-2-en-1-yl]-3-methylpenta-2,4-dienoic acid</t>
+  </si>
+  <si>
+    <t>Chlormequat</t>
+  </si>
+  <si>
+    <t>Bifenox</t>
+  </si>
+  <si>
+    <t>Daminozide</t>
+  </si>
+  <si>
+    <t>Pyriproxyfen</t>
+  </si>
+  <si>
+    <t>Acetic acid</t>
+  </si>
+  <si>
+    <t>(Z)-11-Hexadecenal</t>
+  </si>
+  <si>
+    <t>(E)-5-Decen-1-ol</t>
+  </si>
+  <si>
+    <t>Flupyradifurone</t>
+  </si>
+  <si>
+    <t>Gibberellins</t>
+  </si>
+  <si>
+    <t>Imazamox</t>
+  </si>
+  <si>
+    <t>Bentazone</t>
+  </si>
+  <si>
+    <t>Acetamiprid</t>
+  </si>
+  <si>
+    <t>Clodinafop</t>
+  </si>
+  <si>
+    <t>Metconazole</t>
+  </si>
+  <si>
+    <t>Pirimicarb</t>
+  </si>
+  <si>
+    <t>Prohexadione</t>
+  </si>
+  <si>
+    <t>Methyl octanoate</t>
+  </si>
+  <si>
+    <t>Halauxifen-methyl</t>
+  </si>
+  <si>
+    <t>Sedaxane</t>
+  </si>
+  <si>
+    <t>Phosphane</t>
+  </si>
+  <si>
+    <t>Tefluthrin</t>
+  </si>
+  <si>
+    <t>Paclobutrazol</t>
+  </si>
+  <si>
+    <t>Lenacil</t>
+  </si>
+  <si>
+    <t>Dithianon</t>
+  </si>
+  <si>
+    <t>Etoxazole</t>
+  </si>
+  <si>
+    <t>Pyroxsulam</t>
+  </si>
+  <si>
+    <t>Penflufen</t>
+  </si>
+  <si>
+    <t>Triflusulfuron</t>
+  </si>
+  <si>
+    <t>Fenhexamid</t>
+  </si>
+  <si>
+    <t>Cyhalofop-butyl</t>
+  </si>
+  <si>
+    <t>MCPA</t>
+  </si>
+  <si>
+    <t>Fenpicoxamid</t>
+  </si>
+  <si>
+    <t>Lavandulyl senecioate</t>
+  </si>
+  <si>
+    <t>(Z)-8-Dodecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Bifenazate</t>
+  </si>
+  <si>
+    <t>Fenpyrazamine</t>
+  </si>
+  <si>
+    <t>Metaflumizone</t>
+  </si>
+  <si>
+    <t>1-Naphthylacetamide</t>
+  </si>
+  <si>
+    <t>(Z)-8-Tetradecen-1-ol</t>
+  </si>
+  <si>
+    <t>Tetradecyl acetate</t>
+  </si>
+  <si>
+    <t>Phenmedipham</t>
+  </si>
+  <si>
+    <t>Spiroxamine</t>
+  </si>
+  <si>
+    <t>Sulcotrione</t>
+  </si>
+  <si>
+    <t>Tribenuron</t>
+  </si>
+  <si>
+    <t>(Z,E)-9,12-Tetradecadien-1-yl acetate</t>
+  </si>
+  <si>
+    <t>1-Naphthylacetic acid</t>
+  </si>
+  <si>
+    <t>Kresoxim-methyl</t>
+  </si>
+  <si>
+    <t>Orange oil</t>
+  </si>
+  <si>
+    <t>Captan</t>
+  </si>
+  <si>
+    <t>Benalaxyl-M</t>
+  </si>
+  <si>
+    <t>Zoxamide</t>
+  </si>
+  <si>
+    <t>Meptyldinocap</t>
+  </si>
+  <si>
+    <t>Mefentrifluconazole</t>
+  </si>
+  <si>
+    <t>24-Epibrassinolide</t>
+  </si>
+  <si>
+    <t>Prosulfocarb</t>
+  </si>
+  <si>
+    <t>Propamocarb</t>
+  </si>
+  <si>
+    <t>Cyflumetofen</t>
+  </si>
+  <si>
+    <t>Mepanipyrim</t>
+  </si>
+  <si>
+    <t>Zineb</t>
+  </si>
+  <si>
+    <t>Metsulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Pinoxaden</t>
+  </si>
+  <si>
+    <t>Pyrimethanil</t>
+  </si>
+  <si>
+    <t>Ethephon</t>
+  </si>
+  <si>
+    <t>Rimsulfuron</t>
+  </si>
+  <si>
+    <t>Capric acid</t>
+  </si>
+  <si>
+    <t>(Z)-11-Hexadecen-1-ol</t>
+  </si>
+  <si>
+    <t>Bupirimate</t>
+  </si>
+  <si>
+    <t>Isoxaflutole</t>
+  </si>
+  <si>
+    <t>Fluroxypyr</t>
+  </si>
+  <si>
+    <t>Spirotetramat</t>
+  </si>
+  <si>
+    <t>Clopyralid</t>
+  </si>
+  <si>
+    <t>6-Benzyladenine</t>
+  </si>
+  <si>
+    <t>Diflufenican</t>
+  </si>
+  <si>
+    <t>Bispyribac</t>
+  </si>
+  <si>
+    <t>Indolylbutyric acid</t>
+  </si>
+  <si>
+    <t>Gibberellic acid</t>
+  </si>
+  <si>
+    <t>Terbuthylazine</t>
+  </si>
+  <si>
+    <t>Foramsulfuron</t>
+  </si>
+  <si>
+    <t>Chromafenozide</t>
+  </si>
+  <si>
+    <t>Forchlorfenuron</t>
+  </si>
+  <si>
+    <t>Penoxsulam</t>
+  </si>
+  <si>
+    <t>Aclonifen</t>
+  </si>
+  <si>
+    <t>Bensulfuron</t>
+  </si>
+  <si>
+    <t>Iodosulfuron</t>
+  </si>
+  <si>
+    <t>Propaquizafop</t>
+  </si>
+  <si>
+    <t>Thifensulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Cymoxanil</t>
+  </si>
+  <si>
+    <t>Isopyrazam</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>Folpet</t>
+  </si>
+  <si>
+    <t>Pyridalyl</t>
+  </si>
+  <si>
+    <t>Pyraflufen-ethyl</t>
+  </si>
+  <si>
+    <t>Azimsulfuron</t>
+  </si>
+  <si>
+    <t>2-Phenylphenol</t>
+  </si>
+  <si>
+    <t>Tetradecan-1-ol</t>
+  </si>
+  <si>
+    <t>Difenoconazole</t>
+  </si>
+  <si>
+    <t>Benfluralin</t>
+  </si>
+  <si>
+    <t>Tolclofos-methyl</t>
+  </si>
+  <si>
+    <t>Dodemorph</t>
+  </si>
+  <si>
+    <t>Tetraconazole</t>
+  </si>
+  <si>
+    <t>(Z)-11-Tetradecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Beflubutamid</t>
+  </si>
+  <si>
+    <t>(E)-8-Dodecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Clofentezine</t>
+  </si>
+  <si>
+    <t>8-Hydroxyquinoline</t>
+  </si>
+  <si>
+    <t>Fenpyroximate</t>
+  </si>
+  <si>
+    <t>Fluazifop-P</t>
+  </si>
+  <si>
+    <t>Fludioxonil</t>
+  </si>
+  <si>
+    <t>Valifenalate</t>
+  </si>
+  <si>
+    <t>Quartz sand</t>
+  </si>
+  <si>
+    <t>Metazachlor</t>
+  </si>
+  <si>
+    <t>Oleic acid</t>
+  </si>
+  <si>
+    <t>Clethodim</t>
+  </si>
+  <si>
+    <t>Bixafen</t>
+  </si>
+  <si>
+    <t>Fosthiazate</t>
+  </si>
+  <si>
+    <t>Quizalofop-P-ethyl</t>
+  </si>
+  <si>
+    <t>Isofetamid</t>
+  </si>
+  <si>
+    <t>Chlorotoluron</t>
+  </si>
+  <si>
+    <t>Fluopicolide</t>
+  </si>
+  <si>
+    <t>Chlorantraniliprole</t>
+  </si>
+  <si>
+    <t>Flufenacet</t>
+  </si>
+  <si>
+    <t>Indoxacarb</t>
+  </si>
+  <si>
+    <t>2,4-D</t>
+  </si>
+  <si>
+    <t>lambda-Cyhalothrin</t>
+  </si>
+  <si>
+    <t>Quizalofop-P</t>
+  </si>
+  <si>
+    <t>(Z)-9-Hexadecenal</t>
+  </si>
+  <si>
+    <t>Fenpropidin</t>
+  </si>
+  <si>
+    <t>(E)-5-Decen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Quinmerac</t>
+  </si>
+  <si>
+    <t>(Z,E)-Tetradeca-9,11-dienyl acetate</t>
+  </si>
+  <si>
+    <t>(Z)-7-Tetradecenal</t>
+  </si>
+  <si>
+    <t>(Z)-9-Tetradecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Penthiopyrad</t>
+  </si>
+  <si>
+    <t>(E,E)-8,10-Dodecadien-1-ol</t>
+  </si>
+  <si>
+    <t>Metam</t>
+  </si>
+  <si>
+    <t>Acibenzolar-S-methyl</t>
+  </si>
+  <si>
+    <t>Flutianil</t>
+  </si>
+  <si>
+    <t>Oxathiapiprolin</t>
+  </si>
+  <si>
     <t>Fluxapyroxad</t>
   </si>
   <si>
-    <t>Florpyrauxifen-benzyl</t>
-  </si>
-  <si>
-    <t>Geraniol</t>
-  </si>
-  <si>
-    <t>Paclobutrazol</t>
-  </si>
-  <si>
-    <t>Quinmerac</t>
-  </si>
-  <si>
-    <t>Thiabendazole</t>
-  </si>
-  <si>
-    <t>8-Hydroxyquinoline</t>
-  </si>
-  <si>
-    <t>Metalaxyl</t>
-  </si>
-  <si>
-    <t>Fosetyl</t>
-  </si>
-  <si>
-    <t>Metaldehyde</t>
-  </si>
-  <si>
-    <t>Pyroxsulam</t>
-  </si>
-  <si>
-    <t>Mesotrione</t>
-  </si>
-  <si>
-    <t>Diflufenican</t>
-  </si>
-  <si>
-    <t>Penthiopyrad</t>
-  </si>
-  <si>
-    <t>Fenpyrazamine</t>
+    <t>Cyantraniliprole</t>
+  </si>
+  <si>
+    <t>Proquinazid</t>
+  </si>
+  <si>
+    <t>L-Ascorbic acid</t>
+  </si>
+  <si>
+    <t>Triclopyr</t>
+  </si>
+  <si>
+    <t>Bromuconazole</t>
+  </si>
+  <si>
+    <t>z-8-Tetradecenyl acetate</t>
+  </si>
+  <si>
+    <t>Mecoprop-P</t>
+  </si>
+  <si>
+    <t>Flazasulfuron</t>
+  </si>
+  <si>
+    <t>Metrafenone</t>
+  </si>
+  <si>
+    <t>Prosulfuron</t>
+  </si>
+  <si>
+    <t>Flumioxazin</t>
+  </si>
+  <si>
+    <t>Buprofezin</t>
   </si>
   <si>
     <t>Benthiavalicarb</t>
   </si>
   <si>
-    <t>(Z)-9-Tetradecen-1-yl acetate</t>
-  </si>
-  <si>
-    <t>Propyzamide</t>
-  </si>
-  <si>
-    <t>Iodosulfuron</t>
-  </si>
-  <si>
-    <t>Ipconazole</t>
-  </si>
-  <si>
-    <t>Dimoxystrobin</t>
-  </si>
-  <si>
-    <t>L-Ascorbic acid</t>
-  </si>
-  <si>
-    <t>Fenpicoxamid</t>
+    <t>MCPB</t>
+  </si>
+  <si>
+    <t>1,4-Dimethylnaphthalene</t>
+  </si>
+  <si>
+    <t>4-(2,4-Dichlorophenoxy)butanoic acid</t>
+  </si>
+  <si>
+    <t>(Z,E)-7,11-Hexadecadien-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Pyraclostrobin</t>
+  </si>
+  <si>
+    <t>Pendimethalin</t>
+  </si>
+  <si>
+    <t>(E)-11-Tetradecen-1-yl acetate</t>
+  </si>
+  <si>
+    <t>Dimethenamid-P</t>
+  </si>
+  <si>
+    <t>Milbemectin</t>
+  </si>
+  <si>
+    <t>Flumetralin</t>
   </si>
   <si>
     <t>Boscalid</t>
   </si>
   <si>
-    <t>1-Naphthylacetamide</t>
-  </si>
-  <si>
-    <t>Propaquizafop</t>
-  </si>
-  <si>
-    <t>Flazasulfuron</t>
-  </si>
-  <si>
-    <t>Eugenol</t>
-  </si>
-  <si>
-    <t>Flupyradifurone</t>
-  </si>
-  <si>
-    <t>(Z,E)-9,12-Tetradecadien-1-yl acetate</t>
-  </si>
-  <si>
-    <t>Dithianon</t>
-  </si>
-  <si>
-    <t>Bensulfuron</t>
-  </si>
-  <si>
-    <t>Flumetralin</t>
-  </si>
-  <si>
-    <t>Methyl octanoate</t>
-  </si>
-  <si>
-    <t>Pyridaben</t>
-  </si>
-  <si>
-    <t>1-(4-Chlorophenyl)-5-(2-methoxyethoxy)-4-oxo-1,4-dihydrocinnoline-3-carboxylic acid</t>
-  </si>
-  <si>
-    <t>Azoxystrobin</t>
-  </si>
-  <si>
-    <t>Formetanate</t>
-  </si>
-  <si>
-    <t>Metrafenone</t>
-  </si>
-  <si>
-    <t>(3E,8Z,11Z)-Tetradeca-3,8,11-trienyl acetate</t>
-  </si>
-  <si>
-    <t>Tefluthrin</t>
-  </si>
-  <si>
-    <t>Quizalofop-P-ethyl</t>
-  </si>
-  <si>
-    <t>Methyl 2,5-dichlorobenzoate</t>
-  </si>
-  <si>
-    <t>Clopyralid</t>
-  </si>
-  <si>
-    <t>Dazomet</t>
-  </si>
-  <si>
-    <t>Capric acid</t>
-  </si>
-  <si>
-    <t>Captan</t>
-  </si>
-  <si>
-    <t>Tetraconazole</t>
-  </si>
-  <si>
-    <t>Triclopyr</t>
-  </si>
-  <si>
-    <t>Chlorotoluron</t>
-  </si>
-  <si>
-    <t>Orange oil</t>
-  </si>
-  <si>
-    <t>Triticonazole</t>
-  </si>
-  <si>
-    <t>Bispyribac</t>
-  </si>
-  <si>
-    <t>Flufenacet</t>
-  </si>
-  <si>
-    <t>Indoxacarb</t>
-  </si>
-  <si>
-    <t>Metamitron</t>
-  </si>
-  <si>
-    <t>Tribenuron</t>
-  </si>
-  <si>
-    <t>Dicamba</t>
-  </si>
-  <si>
-    <t>Folpet</t>
-  </si>
-  <si>
-    <t>Rescalure</t>
-  </si>
-  <si>
-    <t>Lauric acid</t>
-  </si>
-  <si>
-    <t>Metalaxyl-M</t>
-  </si>
-  <si>
-    <t>Azimsulfuron</t>
-  </si>
-  <si>
-    <t>Phosphane</t>
-  </si>
-  <si>
-    <t>Garlic extract</t>
-  </si>
-  <si>
-    <t>Buprofezin</t>
-  </si>
-  <si>
-    <t>Triflusulfuron</t>
-  </si>
-  <si>
-    <t>Bupirimate</t>
-  </si>
-  <si>
-    <t>Sulfosulfuron</t>
-  </si>
-  <si>
-    <t>Dimethomorph</t>
-  </si>
-  <si>
-    <t>(Z)-9-Hexadecenal</t>
-  </si>
-  <si>
-    <t>Spiroxamine</t>
-  </si>
-  <si>
-    <t>Mandipropamid</t>
-  </si>
-  <si>
-    <t>Zoxamide</t>
-  </si>
-  <si>
-    <t>Dodemorph</t>
-  </si>
-  <si>
-    <t>Sedaxane</t>
-  </si>
-  <si>
-    <t>Fenazaquin</t>
-  </si>
-  <si>
-    <t>Flurochloridone</t>
-  </si>
-  <si>
-    <t>Nicosulfuron</t>
-  </si>
-  <si>
-    <t>Pendimethalin</t>
-  </si>
-  <si>
-    <t>4-(2,4-Dichlorophenoxy)butanoic acid</t>
-  </si>
-  <si>
-    <t>Fluazinam</t>
-  </si>
-  <si>
-    <t>Foramsulfuron</t>
-  </si>
-  <si>
-    <t>Acibenzolar-S-methyl</t>
-  </si>
-  <si>
-    <t>Etoxazole</t>
-  </si>
-  <si>
-    <t>Indolylbutyric acid</t>
-  </si>
-  <si>
-    <t>(E)-11-Tetradecen-1-yl acetate</t>
-  </si>
-  <si>
-    <t>Difenoconazole</t>
-  </si>
-  <si>
-    <t>Mepiquat</t>
-  </si>
-  <si>
-    <t>Fluometuron</t>
-  </si>
-  <si>
-    <t>(Z)-11-Hexadecen-1-yl acetate</t>
-  </si>
-  <si>
-    <t>Cyazofamid</t>
-  </si>
-  <si>
-    <t>Isoxaben</t>
-  </si>
-  <si>
-    <t>Thymol</t>
-  </si>
-  <si>
-    <t>6-Benzyladenine</t>
-  </si>
-  <si>
-    <t>Thiencarbazone-methyl</t>
-  </si>
-  <si>
-    <t>Fluoxastrobin</t>
-  </si>
-  <si>
-    <t>Imazalil</t>
-  </si>
-  <si>
-    <t>Malathion</t>
-  </si>
-  <si>
-    <t>Ethephon</t>
-  </si>
-  <si>
-    <t>Fludioxonil</t>
-  </si>
-  <si>
-    <t>Trifloxystrobin</t>
-  </si>
-  <si>
-    <t>(Z)-8-Dodecen-1-ol</t>
-  </si>
-  <si>
-    <t>Penoxsulam</t>
-  </si>
-  <si>
-    <t>Metconazole</t>
-  </si>
-  <si>
-    <t>Acequinocyl</t>
-  </si>
-  <si>
-    <t>Hexythiazox</t>
-  </si>
-  <si>
-    <t>Metsulfuron-methyl</t>
-  </si>
-  <si>
-    <t>Picloram</t>
-  </si>
-  <si>
-    <t>Tembotrione</t>
-  </si>
-  <si>
-    <t>Flumioxazin</t>
-  </si>
-  <si>
-    <t>3E,8Z-Tetradecadienyl acetate</t>
-  </si>
-  <si>
-    <t>Bifenox</t>
-  </si>
-  <si>
-    <t>(E)-5-Decen-1-ol</t>
-  </si>
-  <si>
-    <t>Gamma-cyhalothrin</t>
-  </si>
-  <si>
-    <t>Fenoxaprop-P</t>
-  </si>
-  <si>
-    <t>Fenpropidin</t>
-  </si>
-  <si>
-    <t>Isofetamid</t>
-  </si>
-  <si>
-    <t>Aminopyralid</t>
-  </si>
-  <si>
-    <t>Prohexadione</t>
-  </si>
-  <si>
-    <t>Propamocarb</t>
-  </si>
-  <si>
-    <t>Tebufenozide</t>
-  </si>
-  <si>
-    <t>(Z)-11-Hexadecenal</t>
-  </si>
-  <si>
-    <t>1-Naphthylacetic acid</t>
-  </si>
-  <si>
-    <t>Quartz sand</t>
-  </si>
-  <si>
-    <t>Etofenprox</t>
-  </si>
-  <si>
-    <t>Gibberellic acid</t>
-  </si>
-  <si>
-    <t>Urea</t>
-  </si>
-  <si>
-    <t>Clethodim</t>
-  </si>
-  <si>
-    <t>Milbemectin</t>
-  </si>
-  <si>
-    <t>Napropamide</t>
-  </si>
-  <si>
-    <t>Pirimiphos-methyl</t>
-  </si>
-  <si>
-    <t>Aclonifen</t>
-  </si>
-  <si>
-    <t>Proquinazid</t>
-  </si>
-  <si>
-    <t>Fluroxypyr</t>
-  </si>
-  <si>
-    <t>S-Metolachlor</t>
-  </si>
-  <si>
-    <t>Cyhalofop-butyl</t>
-  </si>
-  <si>
-    <t>Prosulfuron</t>
-  </si>
-  <si>
-    <t>Picolinafen</t>
-  </si>
-  <si>
-    <t>Pyridalyl</t>
-  </si>
-  <si>
-    <t>(Z)-9-Dodecen-1-yl acetate</t>
-  </si>
-  <si>
-    <t>Oxathiapiprolin</t>
-  </si>
-  <si>
-    <t>Oleic acid</t>
-  </si>
-  <si>
-    <t>Dodecyl acetate</t>
-  </si>
-  <si>
-    <t>Metribuzin</t>
-  </si>
-  <si>
-    <t>Quizalofop-P</t>
-  </si>
-  <si>
-    <t>24-Epibrassinolide</t>
-  </si>
-  <si>
-    <t>(Z,E)-7,11-Hexadecadien-1-yl acetate</t>
-  </si>
-  <si>
-    <t>(Z)-11-Tetradecen-1-yl acetate</t>
-  </si>
-  <si>
-    <t>Bentazone</t>
-  </si>
-  <si>
-    <t>z-8-Tetradecenyl acetate</t>
-  </si>
-  <si>
-    <t>Acetic acid</t>
-  </si>
-  <si>
-    <t>Fenpyroximate</t>
-  </si>
-  <si>
-    <t>Terbuthylazine</t>
-  </si>
-  <si>
-    <t>Cyprodinil</t>
-  </si>
-  <si>
-    <t>Daminozide</t>
-  </si>
-  <si>
-    <t>(Z)-8-Tetradecen-1-ol</t>
-  </si>
-  <si>
-    <t>(Z)-8-Dodecen-1-yl acetate</t>
-  </si>
-  <si>
-    <t>Quizalofop-P-tefuryl</t>
-  </si>
-  <si>
-    <t>Tri-allate</t>
-  </si>
-  <si>
-    <t>Metazachlor</t>
-  </si>
-  <si>
-    <t>Forchlorfenuron</t>
-  </si>
-  <si>
-    <t>Mefentrifluconazole</t>
-  </si>
-  <si>
-    <t>Tetradecyl acetate</t>
-  </si>
-  <si>
-    <t>Clodinafop</t>
-  </si>
-  <si>
-    <t>Fluopicolide</t>
-  </si>
-  <si>
-    <t>Imazamox</t>
-  </si>
-  <si>
-    <t>Benalaxyl-M</t>
-  </si>
-  <si>
-    <t>Valifenalate</t>
-  </si>
-  <si>
-    <t>Metaflumizone</t>
-  </si>
-  <si>
-    <t>Silthiofam</t>
-  </si>
-  <si>
-    <t>(Z,E)-Tetradeca-9,11-dienyl acetate</t>
-  </si>
-  <si>
-    <t>Kresoxim-methyl</t>
-  </si>
-  <si>
-    <t>Fluazifop-P</t>
-  </si>
-  <si>
-    <t>1-methylcyclopropene</t>
-  </si>
-  <si>
-    <t>Carvone</t>
-  </si>
-  <si>
-    <t>Methoxyfenozide</t>
-  </si>
-  <si>
-    <t>Cyflufenamid</t>
-  </si>
-  <si>
-    <t>(2Z,4E)-5-[(1S)-1-Hydroxy-2,6,6-trimethyl-4-oxocyclohex-2-en-1-yl]-3-methylpenta-2,4-dienoic acid</t>
-  </si>
-  <si>
-    <t>Bifenazate</t>
-  </si>
-  <si>
-    <t>Maleic hydrazide</t>
-  </si>
-  <si>
-    <t>Pyridate</t>
-  </si>
-  <si>
-    <t>Benfluralin</t>
-  </si>
-  <si>
-    <t>Isoxaflutole</t>
-  </si>
-  <si>
-    <t>Prothioconazole</t>
-  </si>
-  <si>
-    <t>Hymexazol</t>
-  </si>
-  <si>
-    <t>Iprovalicarb</t>
-  </si>
-  <si>
-    <t>Propoxycarbazone</t>
-  </si>
-  <si>
-    <t>Trinexapac</t>
-  </si>
-  <si>
-    <t>(E,E)-8,10-Dodecadien-1-ol</t>
-  </si>
-  <si>
-    <t>Ametoctradin</t>
-  </si>
-  <si>
-    <t>Ethylene</t>
-  </si>
-  <si>
-    <t>Oxamyl</t>
-  </si>
-  <si>
-    <t>Amisulbrom</t>
-  </si>
-  <si>
-    <t>Chromafenozide</t>
-  </si>
-  <si>
-    <t>Prochloraz</t>
-  </si>
-  <si>
-    <t>Sulfoxaflor</t>
-  </si>
-  <si>
-    <t>Clomazone</t>
-  </si>
-  <si>
-    <t>Benzovindiflupyr</t>
-  </si>
-  <si>
-    <t>Spirotetramat</t>
-  </si>
-  <si>
-    <t>Esfenvalerate</t>
-  </si>
-  <si>
-    <t>Pyraclostrobin</t>
-  </si>
-  <si>
-    <t>Tetradecan-1-ol</t>
-  </si>
-  <si>
-    <t>(Z)-13-Octadecenal</t>
-  </si>
-  <si>
-    <t>Fenhexamid</t>
-  </si>
-  <si>
-    <t>Dimethenamid-P</t>
-  </si>
-  <si>
-    <t>Mepanipyrim</t>
-  </si>
-  <si>
-    <t>Meptyldinocap</t>
-  </si>
-  <si>
-    <t>Methyl decanoate</t>
-  </si>
-  <si>
-    <t>Pyrimethanil</t>
-  </si>
-  <si>
-    <t>(Z)-7-Tetradecenal</t>
-  </si>
-  <si>
-    <t>Carfentrazone-ethyl</t>
-  </si>
-  <si>
-    <t>Fluquinconazole</t>
-  </si>
-  <si>
-    <t>Sulcotrione</t>
-  </si>
-  <si>
-    <t>Bromuconazole</t>
-  </si>
-  <si>
-    <t>Chlorantraniliprole</t>
-  </si>
-  <si>
-    <t>Metam</t>
-  </si>
-  <si>
-    <t>Cycloxydim</t>
-  </si>
-  <si>
-    <t>Phenmedipham</t>
-  </si>
-  <si>
-    <t>Benzoic acid</t>
-  </si>
-  <si>
-    <t>Metobromuron</t>
-  </si>
-  <si>
-    <t>MCPA</t>
-  </si>
-  <si>
-    <t>Isopyrazam</t>
-  </si>
-  <si>
-    <t>Thifensulfuron-methyl</t>
-  </si>
-  <si>
-    <t>Cymoxanil</t>
-  </si>
-  <si>
-    <t>Pyraflufen-ethyl</t>
-  </si>
-  <si>
-    <t>Diclofop</t>
-  </si>
-  <si>
-    <t>Penconazole</t>
-  </si>
-  <si>
-    <t>Pethoxamid</t>
-  </si>
-  <si>
-    <t>Florasulam</t>
-  </si>
-  <si>
-    <t>Cyantraniliprole</t>
-  </si>
-  <si>
-    <t>2-Phenylphenol</t>
-  </si>
-  <si>
-    <t>Phosmet</t>
-  </si>
-  <si>
-    <t>Tebuconazole</t>
-  </si>
-  <si>
-    <t>Prosulfocarb</t>
-  </si>
-  <si>
-    <t>Beflubutamid</t>
-  </si>
-  <si>
-    <t>Pelargonic acid</t>
-  </si>
-  <si>
-    <t>(E)-8-Dodecen-1-yl acetate</t>
-  </si>
-  <si>
-    <t>Lenacil</t>
-  </si>
-  <si>
-    <t>Pinoxaden</t>
-  </si>
-  <si>
-    <t>2,4-D</t>
-  </si>
-  <si>
-    <t>Tolclofos-methyl</t>
-  </si>
-  <si>
-    <t>Sulfuryl fluoride</t>
-  </si>
-  <si>
-    <t>Flonicamid</t>
-  </si>
-  <si>
-    <t>Bixafen</t>
-  </si>
-  <si>
-    <t>Gibberellins</t>
-  </si>
-  <si>
-    <t>Glyphosate</t>
-  </si>
-  <si>
     <t>Cypermethrin</t>
   </si>
   <si>
-    <t>Cyflumetofen</t>
-  </si>
-  <si>
-    <t>Acrinathrin</t>
-  </si>
-  <si>
-    <t>Fosthiazate</t>
-  </si>
-  <si>
-    <t>Mesosulfuron</t>
-  </si>
-  <si>
-    <t>Pyriproxyfen</t>
-  </si>
-  <si>
-    <t>Flutolanil</t>
-  </si>
-  <si>
-    <t>Zineb</t>
-  </si>
-  <si>
-    <t>Dichlorprop-P</t>
-  </si>
-  <si>
-    <t>Dodecan-1-ol</t>
-  </si>
-  <si>
-    <t>Rimsulfuron</t>
-  </si>
-  <si>
-    <t>Tritosulfuron</t>
-  </si>
-  <si>
-    <t>lambda-Cyhalothrin</t>
-  </si>
-  <si>
-    <t>Pyriofenone</t>
-  </si>
-  <si>
-    <t>Amidosulfuron</t>
-  </si>
-  <si>
-    <t>Deltamethrin</t>
-  </si>
-  <si>
-    <t>Tebufenpyrad</t>
-  </si>
-  <si>
-    <t>Chlormequat</t>
-  </si>
-  <si>
-    <t>Lavandulyl senecioate</t>
-  </si>
-  <si>
-    <t>Clofentezine</t>
-  </si>
-  <si>
-    <t>Laminarin</t>
-  </si>
-  <si>
-    <t>Fluopyram</t>
-  </si>
-  <si>
-    <t>Oxyfluorfen</t>
-  </si>
-  <si>
-    <t>MCPB</t>
-  </si>
-  <si>
-    <t>Ethofumesate</t>
-  </si>
-  <si>
-    <t>Halosulfuron-methyl</t>
-  </si>
-  <si>
-    <t>Spiromesifen</t>
-  </si>
-  <si>
-    <t>tau-Fluvalinate</t>
-  </si>
-  <si>
-    <t>1,4-Dimethylnaphthalene</t>
-  </si>
-  <si>
-    <t>Flutianil</t>
-  </si>
-  <si>
-    <t>Caprylic acid</t>
-  </si>
-  <si>
-    <t>Mandestrobin</t>
-  </si>
-  <si>
-    <t>Mecoprop-P</t>
-  </si>
-  <si>
-    <t>(E)-5-Decen-1-yl acetate</t>
-  </si>
-  <si>
-    <t>Flubendiamide</t>
-  </si>
-  <si>
-    <t>Halauxifen-methyl</t>
-  </si>
-  <si>
-    <t>Penflufen</t>
-  </si>
-  <si>
-    <t>Pirimicarb</t>
-  </si>
-  <si>
-    <t>Acetamiprid</t>
-  </si>
-  <si>
-    <t>Dimethachlor</t>
-  </si>
-  <si>
-    <t>(Z)-11-Hexadecen-1-ol</t>
-  </si>
-  <si>
-    <t>1-Decanol</t>
+    <t>Sodium 4-nitrophenolate</t>
   </si>
   <si>
     <t>Sodium 2-methoxy-5-nitrophenolate</t>
   </si>
   <si>
+    <t>Dodine</t>
+  </si>
+  <si>
+    <t>Ziram</t>
+  </si>
+  <si>
+    <t>Potassium bicarbonate</t>
+  </si>
+  <si>
     <t>Sodium 2-nitrophenolate</t>
-  </si>
-  <si>
-    <t>Potassium bicarbonate</t>
-  </si>
-  <si>
-    <t>Dodine</t>
-  </si>
-  <si>
-    <t>Sodium 4-nitrophenolate</t>
-  </si>
-  <si>
-    <t>Ziram</t>
   </si>
   <si>
     <t>(E,E)-7,9-Dodecadien-1-yl acetate</t>
